--- a/lab3/Lab 3 - Multstage Amplifier.xlsx
+++ b/lab3/Lab 3 - Multstage Amplifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\3ej4\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3FE85-FA3D-401F-9ABA-D4B20CD00F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED505AB-93C7-4B6D-A3B0-66D8FBAD8843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="375" windowWidth="16515" windowHeight="15000" tabRatio="685" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="7485" windowWidth="33030" windowHeight="8805" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1.2" sheetId="13" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -472,6 +472,30 @@
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,11 +1235,90 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="308"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7977528089887642E-2"/>
+                  <c:y val="-8.3333333333333329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7408-48A6-85F8-A0B7E40CEFFF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Step 1.3'!$A$3:$A$407</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="405"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -3755,7 +3858,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4066,6 +4169,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4.9958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4952000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9945999999999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4945999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.994999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5064000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0039999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4075,6 +4241,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4.6086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1117999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3877999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8869999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3840000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9252,21 +9481,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>465305</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>84439</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1196413</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115119F2-1D4E-7874-0A52-44202ED2B81C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9282,8 +9511,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="647700"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:off x="0" y="422131"/>
+          <a:ext cx="4248743" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349256</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>143271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE7FEAB-FB01-43A1-EC47-F8A3E507A2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1168977"/>
+          <a:ext cx="11422069" cy="9040487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>32472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273045</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>61227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE6154F-E61D-F66E-6FBA-E548F58FC970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10261023"/>
+          <a:ext cx="11345858" cy="7497221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9430,22 +9747,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7682</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>84497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>597789</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>84439</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56547</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388600B7-33F7-BE7A-120B-65EE7C47C898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9461,8 +9778,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="485775"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:off x="7682" y="407118"/>
+          <a:ext cx="2844913" cy="4906851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130585</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>105376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601538</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63FA3B8-ABF2-A0BA-018E-038C6602C4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926633" y="427997"/>
+          <a:ext cx="9834644" cy="7604645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>72157</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>303067</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E83A55-3613-12CE-BC0C-02656AD61218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12844318" y="346367"/>
+          <a:ext cx="6292273" cy="6574523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9788,22 +10193,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>182671</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>143528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>188214</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>103489</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>832251</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>100208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D266AE49-1305-F855-6D28-F0DD8288328F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9819,8 +10224,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="182671" y="9890343"/>
+          <a:ext cx="6925642" cy="8411749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589745</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>112771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF6B015-682D-E7B5-DC3A-663C47322735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="1181100"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:ext cx="11993649" cy="8678486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9838,21 +10287,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>149831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>326928</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>131879</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4342292</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>28214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4FEDE2-8B2F-A7E4-0977-0E2B095E0647}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9868,8 +10317,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="665825"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:off x="0" y="13955730"/>
+          <a:ext cx="7392432" cy="6620799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3906321</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58856</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B6801F-4A69-9C69-5532-C5B8BA7B95D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6956461" y="577921"/>
+          <a:ext cx="5634726" cy="834775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21406</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3874214</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AAD687-B044-005C-8F17-46E17A581BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21406" y="631433"/>
+          <a:ext cx="6902948" cy="5833805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468609</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB6630C-A5C1-70A1-E87C-64D514C90883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6464157"/>
+          <a:ext cx="11202963" cy="8278380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10147,7 +10728,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10422,7 +11003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10478,18 +11061,22 @@
       <c r="A3" s="30">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="26">
+        <v>4.41</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4.415</v>
+      </c>
       <c r="D3" s="26">
         <f>A3-B3</f>
-        <v>5</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="E3" s="2">
         <f>B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5.2500000000000003E-3</v>
+        <v>-4.9999999999998934E-3</v>
+      </c>
+      <c r="F3">
+        <v>-6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10521,7 +11108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10544,11 +11133,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="23" t="e">
+      <c r="A2" s="50">
+        <v>1.6516E-3</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2.1315</v>
+      </c>
+      <c r="C2" s="23">
         <f>20*LOG10(B2/2/A2)</f>
-        <v>#DIV/0!</v>
+        <v>56.195009342330103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -10565,7 +11158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10586,11 +11181,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="23" t="e">
+      <c r="A2" s="32">
+        <v>1.622E-3</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2.1314000000000002</v>
+      </c>
+      <c r="C2" s="23">
         <f>20*LOG10(B2/2/A2)</f>
-        <v>#DIV/0!</v>
+        <v>56.351682318048134</v>
       </c>
     </row>
   </sheetData>
@@ -10605,17 +11204,17 @@
   <dimension ref="A1:D407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -10629,7 +11228,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -10643,7 +11242,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="52">
         <v>100</v>
       </c>
       <c r="B3" s="46">
@@ -10658,7 +11257,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="52">
         <v>102.305972984251</v>
       </c>
       <c r="B4" s="46">
@@ -10673,7 +11272,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="52">
         <v>104.665121082543</v>
       </c>
       <c r="B5" s="46">
@@ -10688,7 +11287,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="52">
         <v>107.07867049863999</v>
       </c>
       <c r="B6" s="46">
@@ -10703,7 +11302,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="52">
         <v>109.54787571223299</v>
       </c>
       <c r="B7" s="46">
@@ -10718,7 +11317,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="52">
         <v>112.074020130978</v>
       </c>
       <c r="B8" s="46">
@@ -10733,7 +11332,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="52">
         <v>114.65841675756199</v>
       </c>
       <c r="B9" s="46">
@@ -10748,7 +11347,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="52">
         <v>117.302408872161</v>
       </c>
       <c r="B10" s="46">
@@ -10763,7 +11362,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="52">
         <v>120.00737073062901</v>
       </c>
       <c r="B11" s="46">
@@ -10778,7 +11377,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
+      <c r="A12" s="52">
         <v>122.774708278787</v>
       </c>
       <c r="B12" s="46">
@@ -10793,7 +11392,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="52">
         <v>125.605859883189</v>
       </c>
       <c r="B13" s="46">
@@ -10808,7 +11407,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
+      <c r="A14" s="52">
         <v>128.502297078731</v>
       </c>
       <c r="B14" s="46">
@@ -10823,7 +11422,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="52">
         <v>131.465525333508</v>
       </c>
       <c r="B15" s="46">
@@ -10838,7 +11437,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="52">
         <v>134.497084831302</v>
       </c>
       <c r="B16" s="46">
@@ -10853,7 +11452,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="52">
         <v>137.59855127211699</v>
       </c>
       <c r="B17" s="46">
@@ -10868,7 +11467,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="45">
+      <c r="A18" s="52">
         <v>140.771536691173</v>
       </c>
       <c r="B18" s="46">
@@ -10883,7 +11482,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="52">
         <v>144.01769029678599</v>
       </c>
       <c r="B19" s="46">
@@ -10898,7 +11497,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="45">
+      <c r="A20" s="52">
         <v>147.33869932757199</v>
       </c>
       <c r="B20" s="46">
@@ -10913,7 +11512,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="45">
+      <c r="A21" s="52">
         <v>150.73628992941201</v>
       </c>
       <c r="B21" s="46">
@@ -10928,7 +11527,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="52">
         <v>154.21222805264699</v>
       </c>
       <c r="B22" s="46">
@@ -10943,7 +11542,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="52">
         <v>157.76832036995199</v>
       </c>
       <c r="B23" s="46">
@@ -10958,7 +11557,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="A24" s="52">
         <v>161.40641521538899</v>
       </c>
       <c r="B24" s="46">
@@ -10973,7 +11572,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="45">
+      <c r="A25" s="52">
         <v>165.12840354510399</v>
       </c>
       <c r="B25" s="46">
@@ -10988,7 +11587,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="A26" s="52">
         <v>168.93621992017901</v>
       </c>
       <c r="B26" s="46">
@@ -11003,7 +11602,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
+      <c r="A27" s="52">
         <v>172.831843512153</v>
       </c>
       <c r="B27" s="46">
@@ -11018,7 +11617,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="45">
+      <c r="A28" s="52">
         <v>176.817299131726</v>
       </c>
       <c r="B28" s="46">
@@ -11033,7 +11632,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="45">
+      <c r="A29" s="52">
         <v>180.894658281185</v>
       </c>
       <c r="B29" s="46">
@@ -11048,7 +11647,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="45">
+      <c r="A30" s="52">
         <v>185.06604023110299</v>
       </c>
       <c r="B30" s="46">
@@ -11063,7 +11662,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="45">
+      <c r="A31" s="52">
         <v>189.333613121855</v>
       </c>
       <c r="B31" s="46">
@@ -11078,7 +11677,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="45">
+      <c r="A32" s="52">
         <v>193.69959509055099</v>
       </c>
       <c r="B32" s="46">
@@ -11093,7 +11692,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="45">
+      <c r="A33" s="52">
         <v>198.166255423942</v>
       </c>
       <c r="B33" s="46">
@@ -11108,7 +11707,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="45">
+      <c r="A34" s="52">
         <v>202.73591573792001</v>
       </c>
       <c r="B34" s="46">
@@ -11123,7 +11722,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="45">
+      <c r="A35" s="52">
         <v>207.41095118421001</v>
       </c>
       <c r="B35" s="46">
@@ -11138,7 +11737,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="45">
+      <c r="A36" s="52">
         <v>212.19379168489499</v>
       </c>
       <c r="B36" s="46">
@@ -11153,7 +11752,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="45">
+      <c r="A37" s="52">
         <v>217.086923195407</v>
       </c>
       <c r="B37" s="46">
@@ -11168,7 +11767,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="45">
+      <c r="A38" s="52">
         <v>222.092888996634</v>
       </c>
       <c r="B38" s="46">
@@ -11183,7 +11782,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="45">
+      <c r="A39" s="52">
         <v>227.21429101683901</v>
       </c>
       <c r="B39" s="46">
@@ -11198,7 +11797,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="45">
+      <c r="A40" s="52">
         <v>232.45379118404401</v>
       </c>
       <c r="B40" s="46">
@@ -11213,7 +11812,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="45">
+      <c r="A41" s="52">
         <v>237.81411280961501</v>
       </c>
       <c r="B41" s="46">
@@ -11228,7 +11827,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="45">
+      <c r="A42" s="52">
         <v>243.29804200374099</v>
       </c>
       <c r="B42" s="46">
@@ -11243,7 +11842,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="45">
+      <c r="A43" s="52">
         <v>248.90842912355799</v>
       </c>
       <c r="B43" s="46">
@@ -11258,7 +11857,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="45">
+      <c r="A44" s="52">
         <v>254.64819025467099</v>
       </c>
       <c r="B44" s="46">
@@ -11273,7 +11872,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="45">
+      <c r="A45" s="52">
         <v>260.52030872682701</v>
       </c>
       <c r="B45" s="46">
@@ -11288,7 +11887,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="45">
+      <c r="A46" s="52">
         <v>266.52783666455502</v>
       </c>
       <c r="B46" s="46">
@@ -11303,7 +11902,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="45">
+      <c r="A47" s="52">
         <v>272.67389657354801</v>
       </c>
       <c r="B47" s="46">
@@ -11318,7 +11917,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="45">
+      <c r="A48" s="52">
         <v>278.961682963638</v>
       </c>
       <c r="B48" s="46">
@@ -11333,7 +11932,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="45">
+      <c r="A49" s="52">
         <v>285.39446400919098</v>
       </c>
       <c r="B49" s="46">
@@ -11348,7 +11947,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="45">
+      <c r="A50" s="52">
         <v>291.97558324778998</v>
       </c>
       <c r="B50" s="46">
@@ -11363,7 +11962,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="45">
+      <c r="A51" s="52">
         <v>298.70846131809299</v>
       </c>
       <c r="B51" s="46">
@@ -11378,7 +11977,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="45">
+      <c r="A52" s="52">
         <v>305.59659773776002</v>
       </c>
       <c r="B52" s="46">
@@ -11393,7 +11992,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="45">
+      <c r="A53" s="52">
         <v>312.64357272238198</v>
       </c>
       <c r="B53" s="46">
@@ -11408,7 +12007,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="45">
+      <c r="A54" s="52">
         <v>319.853049046357</v>
       </c>
       <c r="B54" s="46">
@@ -11423,7 +12022,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="45">
+      <c r="A55" s="52">
         <v>327.22877394666898</v>
       </c>
       <c r="B55" s="46">
@@ -11438,7 +12037,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="45">
+      <c r="A56" s="52">
         <v>334.77458107057402</v>
       </c>
       <c r="B56" s="46">
@@ -11453,7 +12052,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="45">
+      <c r="A57" s="52">
         <v>342.494392468201</v>
       </c>
       <c r="B57" s="46">
@@ -11468,7 +12067,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="45">
+      <c r="A58" s="52">
         <v>350.39222063109099</v>
       </c>
       <c r="B58" s="46">
@@ -11483,7 +12082,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
+      <c r="A59" s="52">
         <v>358.47217057776101</v>
       </c>
       <c r="B59" s="46">
@@ -11498,7 +12097,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="45">
+      <c r="A60" s="52">
         <v>366.73844198734201</v>
       </c>
       <c r="B60" s="46">
@@ -11513,7 +12112,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="45">
+      <c r="A61" s="52">
         <v>375.19533138243298</v>
       </c>
       <c r="B61" s="46">
@@ -11528,7 +12127,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="45">
+      <c r="A62" s="52">
         <v>383.84723436228199</v>
       </c>
       <c r="B62" s="46">
@@ -11543,7 +12142,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="45">
+      <c r="A63" s="52">
         <v>392.69864788746997</v>
       </c>
       <c r="B63" s="46">
@@ -11558,7 +12157,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
+      <c r="A64" s="52">
         <v>401.75417261727398</v>
       </c>
       <c r="B64" s="46">
@@ -11573,7 +12172,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="45">
+      <c r="A65" s="52">
         <v>411.01851530092898</v>
       </c>
       <c r="B65" s="46">
@@ -11588,7 +12187,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="45">
+      <c r="A66" s="52">
         <v>420.49649122403702</v>
       </c>
       <c r="B66" s="46">
@@ -11603,7 +12202,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="45">
+      <c r="A67" s="52">
         <v>430.19302671138598</v>
       </c>
       <c r="B67" s="46">
@@ -11618,7 +12217,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="45">
+      <c r="A68" s="52">
         <v>440.11316168748198</v>
       </c>
       <c r="B68" s="46">
@@ -11633,7 +12232,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="45">
+      <c r="A69" s="52">
         <v>450.26205229612702</v>
       </c>
       <c r="B69" s="46">
@@ -11648,7 +12247,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="45">
+      <c r="A70" s="52">
         <v>460.64497358041001</v>
       </c>
       <c r="B70" s="46">
@@ -11663,7 +12262,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="45">
+      <c r="A71" s="52">
         <v>471.267322224483</v>
       </c>
       <c r="B71" s="46">
@@ -11678,7 +12277,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="45">
+      <c r="A72" s="52">
         <v>482.13461935858197</v>
       </c>
       <c r="B72" s="46">
@@ -11693,7 +12292,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="45">
+      <c r="A73" s="52">
         <v>493.25251342871201</v>
       </c>
       <c r="B73" s="46">
@@ -11708,7 +12307,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="45">
+      <c r="A74" s="52">
         <v>504.62678313251598</v>
       </c>
       <c r="B74" s="46">
@@ -11723,7 +12322,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="45">
+      <c r="A75" s="52">
         <v>516.263340422846</v>
       </c>
       <c r="B75" s="46">
@@ -11738,7 +12337,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="45">
+      <c r="A76" s="52">
         <v>528.16823358058798</v>
       </c>
       <c r="B76" s="46">
@@ -11753,7 +12352,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="45">
+      <c r="A77" s="52">
         <v>540.34765035835198</v>
       </c>
       <c r="B77" s="46">
@@ -11768,7 +12367,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="45">
+      <c r="A78" s="52">
         <v>552.80792119664898</v>
       </c>
       <c r="B78" s="46">
@@ -11783,7 +12382,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="45">
+      <c r="A79" s="52">
         <v>565.55552251424297</v>
       </c>
       <c r="B79" s="46">
@@ -11798,7 +12397,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="45">
+      <c r="A80" s="52">
         <v>578.59708007435995</v>
       </c>
       <c r="B80" s="46">
@@ -11813,7 +12412,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="45">
+      <c r="A81" s="52">
         <v>591.93937242853895</v>
       </c>
       <c r="B81" s="46">
@@ -11828,7 +12427,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="45">
+      <c r="A82" s="52">
         <v>605.58933443988599</v>
       </c>
       <c r="B82" s="46">
@@ -11843,7 +12442,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="45">
+      <c r="A83" s="52">
         <v>619.554060887574</v>
       </c>
       <c r="B83" s="46">
@@ -11858,7 +12457,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="45">
+      <c r="A84" s="52">
         <v>633.84081015446998</v>
       </c>
       <c r="B84" s="46">
@@ -11873,7 +12472,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="45">
+      <c r="A85" s="52">
         <v>648.45700799978897</v>
       </c>
       <c r="B85" s="46">
@@ -11888,7 +12487,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="45">
+      <c r="A86" s="52">
         <v>663.41025141874604</v>
       </c>
       <c r="B86" s="46">
@@ -11903,7 +12502,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="45">
+      <c r="A87" s="52">
         <v>678.70831259121303</v>
       </c>
       <c r="B87" s="46">
@@ -11918,7 +12517,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="45">
+      <c r="A88" s="52">
         <v>694.35914292143104</v>
       </c>
       <c r="B88" s="46">
@@ -11933,7 +12532,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="45">
+      <c r="A89" s="52">
         <v>710.37087717087502</v>
       </c>
       <c r="B89" s="46">
@@ -11948,7 +12547,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="45">
+      <c r="A90" s="52">
         <v>726.75183768642103</v>
       </c>
       <c r="B90" s="46">
@@ -11963,7 +12562,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="45">
+      <c r="A91" s="52">
         <v>743.51053872601699</v>
       </c>
       <c r="B91" s="46">
@@ -11978,7 +12577,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="45">
+      <c r="A92" s="52">
         <v>760.655690884097</v>
       </c>
       <c r="B92" s="46">
@@ -11993,7 +12592,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="45">
+      <c r="A93" s="52">
         <v>778.19620561905106</v>
       </c>
       <c r="B93" s="46">
@@ -12008,7 +12607,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="45">
+      <c r="A94" s="52">
         <v>796.14119988509105</v>
       </c>
       <c r="B94" s="46">
@@ -12023,7 +12622,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="45">
+      <c r="A95" s="52">
         <v>814.50000087093201</v>
       </c>
       <c r="B95" s="46">
@@ -12038,7 +12637,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="45">
+      <c r="A96" s="52">
         <v>833.28215084773899</v>
       </c>
       <c r="B96" s="46">
@@ -12053,7 +12652,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="45">
+      <c r="A97" s="52">
         <v>852.49741212887204</v>
       </c>
       <c r="B97" s="46">
@@ -12068,7 +12667,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="45">
+      <c r="A98" s="52">
         <v>872.15577214400196</v>
       </c>
       <c r="B98" s="46">
@@ -12083,7 +12682,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="45">
+      <c r="A99" s="52">
         <v>892.26744863022702</v>
       </c>
       <c r="B99" s="46">
@@ -12098,7 +12697,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="45">
+      <c r="A100" s="52">
         <v>912.84289494290397</v>
       </c>
       <c r="B100" s="46">
@@ -12113,7 +12712,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="45">
+      <c r="A101" s="52">
         <v>933.89280548894101</v>
       </c>
       <c r="B101" s="46">
@@ -12128,7 +12727,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="45">
+      <c r="A102" s="52">
         <v>955.42812128537901</v>
       </c>
       <c r="B102" s="46">
@@ -12143,7 +12742,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="45">
+      <c r="A103" s="52">
         <v>977.46003564615501</v>
       </c>
       <c r="B103" s="46">
@@ -12158,7 +12757,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="45">
+      <c r="A104" s="52">
         <v>1000</v>
       </c>
       <c r="B104" s="46">
@@ -12173,7 +12772,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="45">
+      <c r="A105" s="52">
         <v>1023.05972984251</v>
       </c>
       <c r="B105" s="46">
@@ -12188,7 +12787,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="45">
+      <c r="A106" s="52">
         <v>1046.6512108254301</v>
       </c>
       <c r="B106" s="46">
@@ -12203,7 +12802,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="45">
+      <c r="A107" s="52">
         <v>1070.7867049864001</v>
       </c>
       <c r="B107" s="46">
@@ -12218,7 +12817,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="45">
+      <c r="A108" s="52">
         <v>1095.4787571223401</v>
       </c>
       <c r="B108" s="46">
@@ -12233,7 +12832,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="45">
+      <c r="A109" s="52">
         <v>1120.7402013097801</v>
       </c>
       <c r="B109" s="46">
@@ -12248,7 +12847,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="45">
+      <c r="A110" s="52">
         <v>1146.5841675756301</v>
       </c>
       <c r="B110" s="46">
@@ -12263,7 +12862,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="45">
+      <c r="A111" s="52">
         <v>1173.02408872162</v>
       </c>
       <c r="B111" s="46">
@@ -12278,7 +12877,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="45">
+      <c r="A112" s="52">
         <v>1200.0737073062901</v>
       </c>
       <c r="B112" s="46">
@@ -12293,7 +12892,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="45">
+      <c r="A113" s="52">
         <v>1227.7470827878701</v>
       </c>
       <c r="B113" s="46">
@@ -12308,7 +12907,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="45">
+      <c r="A114" s="52">
         <v>1256.0585988318901</v>
       </c>
       <c r="B114" s="46">
@@ -12323,7 +12922,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="45">
+      <c r="A115" s="52">
         <v>1285.02297078731</v>
       </c>
       <c r="B115" s="46">
@@ -12338,7 +12937,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="45">
+      <c r="A116" s="52">
         <v>1314.65525333509</v>
       </c>
       <c r="B116" s="46">
@@ -12353,7 +12952,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="45">
+      <c r="A117" s="52">
         <v>1344.97084831303</v>
       </c>
       <c r="B117" s="46">
@@ -12368,7 +12967,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="45">
+      <c r="A118" s="52">
         <v>1375.9855127211799</v>
       </c>
       <c r="B118" s="46">
@@ -12383,7 +12982,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="45">
+      <c r="A119" s="52">
         <v>1407.7153669117299</v>
       </c>
       <c r="B119" s="46">
@@ -12398,7 +12997,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="45">
+      <c r="A120" s="52">
         <v>1440.1769029678701</v>
       </c>
       <c r="B120" s="46">
@@ -12413,7 +13012,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="45">
+      <c r="A121" s="52">
         <v>1473.38699327573</v>
       </c>
       <c r="B121" s="46">
@@ -12428,7 +13027,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="45">
+      <c r="A122" s="52">
         <v>1507.3628992941301</v>
       </c>
       <c r="B122" s="46">
@@ -12443,7 +13042,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="45">
+      <c r="A123" s="52">
         <v>1542.1222805264699</v>
       </c>
       <c r="B123" s="46">
@@ -12458,7 +13057,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="45">
+      <c r="A124" s="52">
         <v>1577.6832036995299</v>
       </c>
       <c r="B124" s="46">
@@ -12473,7 +13072,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="45">
+      <c r="A125" s="52">
         <v>1614.0641521539001</v>
       </c>
       <c r="B125" s="46">
@@ -12488,7 +13087,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="45">
+      <c r="A126" s="52">
         <v>1651.2840354510499</v>
       </c>
       <c r="B126" s="46">
@@ -12503,7 +13102,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="45">
+      <c r="A127" s="52">
         <v>1689.3621992018</v>
       </c>
       <c r="B127" s="46">
@@ -12518,7 +13117,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="45">
+      <c r="A128" s="52">
         <v>1728.31843512154</v>
       </c>
       <c r="B128" s="46">
@@ -12533,7 +13132,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="45">
+      <c r="A129" s="52">
         <v>1768.1729913172701</v>
       </c>
       <c r="B129" s="46">
@@ -12548,7 +13147,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="45">
+      <c r="A130" s="52">
         <v>1808.94658281186</v>
       </c>
       <c r="B130" s="46">
@@ -12563,7 +13162,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="45">
+      <c r="A131" s="52">
         <v>1850.6604023110301</v>
       </c>
       <c r="B131" s="46">
@@ -12578,7 +13177,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="45">
+      <c r="A132" s="52">
         <v>1893.33613121855</v>
       </c>
       <c r="B132" s="46">
@@ -12593,7 +13192,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="45">
+      <c r="A133" s="52">
         <v>1936.99595090551</v>
       </c>
       <c r="B133" s="46">
@@ -12608,7 +13207,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="45">
+      <c r="A134" s="52">
         <v>1981.6625542394299</v>
       </c>
       <c r="B134" s="46">
@@ -12623,7 +13222,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="45">
+      <c r="A135" s="52">
         <v>2027.3591573792</v>
       </c>
       <c r="B135" s="46">
@@ -12638,7 +13237,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="45">
+      <c r="A136" s="52">
         <v>2074.1095118420999</v>
       </c>
       <c r="B136" s="46">
@@ -12653,7 +13252,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="45">
+      <c r="A137" s="52">
         <v>2121.93791684896</v>
       </c>
       <c r="B137" s="46">
@@ -12668,7 +13267,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="45">
+      <c r="A138" s="52">
         <v>2170.8692319540701</v>
       </c>
       <c r="B138" s="46">
@@ -12683,7 +13282,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="45">
+      <c r="A139" s="52">
         <v>2220.9288899663502</v>
       </c>
       <c r="B139" s="46">
@@ -12698,7 +13297,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="45">
+      <c r="A140" s="52">
         <v>2272.1429101683898</v>
       </c>
       <c r="B140" s="46">
@@ -12713,7 +13312,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="45">
+      <c r="A141" s="52">
         <v>2324.5379118404499</v>
       </c>
       <c r="B141" s="46">
@@ -12728,7 +13327,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="45">
+      <c r="A142" s="52">
         <v>2378.1411280961602</v>
       </c>
       <c r="B142" s="46">
@@ -12743,7 +13342,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="45">
+      <c r="A143" s="52">
         <v>2432.9804200374201</v>
       </c>
       <c r="B143" s="46">
@@ -12758,7 +13357,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="45">
+      <c r="A144" s="52">
         <v>2489.0842912355902</v>
       </c>
       <c r="B144" s="46">
@@ -12773,7 +13372,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="45">
+      <c r="A145" s="52">
         <v>2546.48190254672</v>
       </c>
       <c r="B145" s="46">
@@ -12788,7 +13387,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="45">
+      <c r="A146" s="52">
         <v>2605.2030872682799</v>
       </c>
       <c r="B146" s="46">
@@ -12803,7 +13402,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="45">
+      <c r="A147" s="52">
         <v>2665.2783666455598</v>
       </c>
       <c r="B147" s="46">
@@ -12818,7 +13417,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="45">
+      <c r="A148" s="52">
         <v>2726.7389657354902</v>
       </c>
       <c r="B148" s="46">
@@ -12833,7 +13432,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="45">
+      <c r="A149" s="52">
         <v>2789.6168296363899</v>
       </c>
       <c r="B149" s="46">
@@ -12848,7 +13447,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="45">
+      <c r="A150" s="52">
         <v>2853.9446400919201</v>
       </c>
       <c r="B150" s="46">
@@ -12863,7 +13462,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="45">
+      <c r="A151" s="52">
         <v>2919.7558324779102</v>
       </c>
       <c r="B151" s="46">
@@ -12878,7 +13477,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="45">
+      <c r="A152" s="52">
         <v>2987.0846131809399</v>
       </c>
       <c r="B152" s="46">
@@ -12893,7 +13492,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="45">
+      <c r="A153" s="52">
         <v>3055.9659773776102</v>
       </c>
       <c r="B153" s="46">
@@ -12908,7 +13507,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="45">
+      <c r="A154" s="52">
         <v>3126.4357272238299</v>
       </c>
       <c r="B154" s="46">
@@ -12923,7 +13522,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="45">
+      <c r="A155" s="52">
         <v>3198.53049046358</v>
       </c>
       <c r="B155" s="46">
@@ -12938,7 +13537,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="45">
+      <c r="A156" s="52">
         <v>3272.2877394666998</v>
       </c>
       <c r="B156" s="46">
@@ -12953,7 +13552,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="45">
+      <c r="A157" s="52">
         <v>3347.74581070575</v>
       </c>
       <c r="B157" s="46">
@@ -12968,7 +13567,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="45">
+      <c r="A158" s="52">
         <v>3424.9439246820202</v>
       </c>
       <c r="B158" s="46">
@@ -12983,7 +13582,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="45">
+      <c r="A159" s="52">
         <v>3503.9222063109301</v>
       </c>
       <c r="B159" s="46">
@@ -12998,7 +13597,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="45">
+      <c r="A160" s="52">
         <v>3584.7217057776202</v>
       </c>
       <c r="B160" s="46">
@@ -13013,7 +13612,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="45">
+      <c r="A161" s="52">
         <v>3667.38441987343</v>
       </c>
       <c r="B161" s="46">
@@ -13028,7 +13627,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="45">
+      <c r="A162" s="52">
         <v>3751.9533138243401</v>
       </c>
       <c r="B162" s="46">
@@ -13043,7 +13642,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="45">
+      <c r="A163" s="52">
         <v>3838.4723436228301</v>
       </c>
       <c r="B163" s="46">
@@ -13058,7 +13657,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="45">
+      <c r="A164" s="52">
         <v>3926.98647887472</v>
       </c>
       <c r="B164" s="46">
@@ -13073,7 +13672,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="45">
+      <c r="A165" s="52">
         <v>4017.5417261727498</v>
       </c>
       <c r="B165" s="46">
@@ -13088,7 +13687,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="45">
+      <c r="A166" s="52">
         <v>4110.1851530092999</v>
       </c>
       <c r="B166" s="46">
@@ -13103,7 +13702,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="45">
+      <c r="A167" s="52">
         <v>4204.9649122403798</v>
       </c>
       <c r="B167" s="46">
@@ -13118,7 +13717,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="45">
+      <c r="A168" s="52">
         <v>4301.9302671138803</v>
       </c>
       <c r="B168" s="46">
@@ -13133,7 +13732,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="45">
+      <c r="A169" s="52">
         <v>4401.1316168748299</v>
       </c>
       <c r="B169" s="46">
@@ -13148,7 +13747,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="45">
+      <c r="A170" s="52">
         <v>4502.6205229612897</v>
       </c>
       <c r="B170" s="46">
@@ -13163,7 +13762,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="45">
+      <c r="A171" s="52">
         <v>4606.4497358041099</v>
       </c>
       <c r="B171" s="46">
@@ -13178,7 +13777,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="45">
+      <c r="A172" s="52">
         <v>4712.67322224485</v>
       </c>
       <c r="B172" s="46">
@@ -13193,7 +13792,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="45">
+      <c r="A173" s="52">
         <v>4821.3461935858404</v>
       </c>
       <c r="B173" s="46">
@@ -13208,7 +13807,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="45">
+      <c r="A174" s="52">
         <v>4932.5251342871397</v>
       </c>
       <c r="B174" s="46">
@@ -13223,7 +13822,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="45">
+      <c r="A175" s="52">
         <v>5046.2678313251799</v>
       </c>
       <c r="B175" s="46">
@@ -13238,7 +13837,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="45">
+      <c r="A176" s="52">
         <v>5162.6334042284798</v>
       </c>
       <c r="B176" s="46">
@@ -13253,7 +13852,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="45">
+      <c r="A177" s="52">
         <v>5281.6823358059</v>
       </c>
       <c r="B177" s="46">
@@ -13268,7 +13867,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="45">
+      <c r="A178" s="52">
         <v>5403.4765035835399</v>
       </c>
       <c r="B178" s="46">
@@ -13283,7 +13882,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="45">
+      <c r="A179" s="52">
         <v>5528.0792119665102</v>
       </c>
       <c r="B179" s="46">
@@ -13298,7 +13897,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="45">
+      <c r="A180" s="52">
         <v>5655.5552251424497</v>
       </c>
       <c r="B180" s="46">
@@ -13313,7 +13912,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="45">
+      <c r="A181" s="52">
         <v>5785.9708007436202</v>
       </c>
       <c r="B181" s="46">
@@ -13328,7 +13927,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="45">
+      <c r="A182" s="52">
         <v>5919.3937242854099</v>
       </c>
       <c r="B182" s="46">
@@ -13343,7 +13942,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="45">
+      <c r="A183" s="52">
         <v>6055.8933443988799</v>
       </c>
       <c r="B183" s="46">
@@ -13358,7 +13957,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="45">
+      <c r="A184" s="52">
         <v>6195.54060887576</v>
       </c>
       <c r="B184" s="46">
@@ -13373,7 +13972,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="45">
+      <c r="A185" s="52">
         <v>6338.40810154473</v>
       </c>
       <c r="B185" s="46">
@@ -13388,7 +13987,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="45">
+      <c r="A186" s="52">
         <v>6484.5700799979204</v>
       </c>
       <c r="B186" s="46">
@@ -13403,7 +14002,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="45">
+      <c r="A187" s="52">
         <v>6634.1025141874798</v>
       </c>
       <c r="B187" s="46">
@@ -13418,7 +14017,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="45">
+      <c r="A188" s="52">
         <v>6787.0831259121496</v>
       </c>
       <c r="B188" s="46">
@@ -13433,7 +14032,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="45">
+      <c r="A189" s="52">
         <v>6943.5914292143398</v>
       </c>
       <c r="B189" s="46">
@@ -13448,7 +14047,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="45">
+      <c r="A190" s="52">
         <v>7103.7087717087798</v>
       </c>
       <c r="B190" s="46">
@@ -13463,7 +14062,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="45">
+      <c r="A191" s="52">
         <v>7267.5183768642401</v>
       </c>
       <c r="B191" s="46">
@@ -13478,7 +14077,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="45">
+      <c r="A192" s="52">
         <v>7435.1053872601997</v>
       </c>
       <c r="B192" s="46">
@@ -13493,7 +14092,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="45">
+      <c r="A193" s="52">
         <v>7606.5569088410002</v>
       </c>
       <c r="B193" s="46">
@@ -13508,7 +14107,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="45">
+      <c r="A194" s="52">
         <v>7781.9620561905404</v>
       </c>
       <c r="B194" s="46">
@@ -13523,7 +14122,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="45">
+      <c r="A195" s="52">
         <v>7961.4119988509401</v>
       </c>
       <c r="B195" s="46">
@@ -13538,7 +14137,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="45">
+      <c r="A196" s="52">
         <v>8145.0000087093504</v>
       </c>
       <c r="B196" s="46">
@@ -13553,7 +14152,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="45">
+      <c r="A197" s="52">
         <v>8332.8215084774201</v>
       </c>
       <c r="B197" s="46">
@@ -13568,7 +14167,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="45">
+      <c r="A198" s="52">
         <v>8524.9741212887493</v>
       </c>
       <c r="B198" s="46">
@@ -13583,7 +14182,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="45">
+      <c r="A199" s="52">
         <v>8721.5577214400491</v>
       </c>
       <c r="B199" s="46">
@@ -13598,7 +14197,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="45">
+      <c r="A200" s="52">
         <v>8922.6744863022996</v>
       </c>
       <c r="B200" s="46">
@@ -13613,7 +14212,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="45">
+      <c r="A201" s="52">
         <v>9128.4289494290806</v>
       </c>
       <c r="B201" s="46">
@@ -13628,7 +14227,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="45">
+      <c r="A202" s="52">
         <v>9338.9280548894494</v>
       </c>
       <c r="B202" s="46">
@@ -13643,7 +14242,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="45">
+      <c r="A203" s="52">
         <v>9554.2812128538208</v>
       </c>
       <c r="B203" s="46">
@@ -13658,7 +14257,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="45">
+      <c r="A204" s="52">
         <v>9774.6003564615894</v>
       </c>
       <c r="B204" s="46">
@@ -13673,7 +14272,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="45">
+      <c r="A205" s="52">
         <v>10000.0000000001</v>
       </c>
       <c r="B205" s="46">
@@ -13688,7 +14287,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="45">
+      <c r="A206" s="52">
         <v>10230.5972984252</v>
       </c>
       <c r="B206" s="46">
@@ -13703,7 +14302,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="45">
+      <c r="A207" s="52">
         <v>10466.512108254399</v>
       </c>
       <c r="B207" s="46">
@@ -13718,7 +14317,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="45">
+      <c r="A208" s="52">
         <v>10707.867049864</v>
       </c>
       <c r="B208" s="46">
@@ -13733,7 +14332,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="45">
+      <c r="A209" s="52">
         <v>10954.7875712234</v>
       </c>
       <c r="B209" s="46">
@@ -13748,7 +14347,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="45">
+      <c r="A210" s="52">
         <v>11207.402013097901</v>
       </c>
       <c r="B210" s="46">
@@ -13763,7 +14362,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="45">
+      <c r="A211" s="52">
         <v>11465.841675756301</v>
       </c>
       <c r="B211" s="46">
@@ -13778,7 +14377,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="45">
+      <c r="A212" s="52">
         <v>11730.2408872162</v>
       </c>
       <c r="B212" s="46">
@@ -13793,7 +14392,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="45">
+      <c r="A213" s="52">
         <v>12000.737073062999</v>
       </c>
       <c r="B213" s="46">
@@ -13808,7 +14407,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="45">
+      <c r="A214" s="52">
         <v>12277.4708278788</v>
       </c>
       <c r="B214" s="46">
@@ -13823,7 +14422,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="45">
+      <c r="A215" s="52">
         <v>12560.585988319001</v>
       </c>
       <c r="B215" s="46">
@@ -13838,7 +14437,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="45">
+      <c r="A216" s="52">
         <v>12850.229707873201</v>
       </c>
       <c r="B216" s="46">
@@ -13853,7 +14452,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="45">
+      <c r="A217" s="52">
         <v>13146.552533350899</v>
       </c>
       <c r="B217" s="46">
@@ -13868,7 +14467,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="45">
+      <c r="A218" s="52">
         <v>13449.7084831303</v>
       </c>
       <c r="B218" s="46">
@@ -13883,7 +14482,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="45">
+      <c r="A219" s="52">
         <v>13759.8551272118</v>
       </c>
       <c r="B219" s="46">
@@ -13898,7 +14497,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="45">
+      <c r="A220" s="52">
         <v>14077.153669117401</v>
       </c>
       <c r="B220" s="46">
@@ -13913,7 +14512,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="45">
+      <c r="A221" s="52">
         <v>14401.7690296787</v>
       </c>
       <c r="B221" s="46">
@@ -13928,7 +14527,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="45">
+      <c r="A222" s="52">
         <v>14733.869932757299</v>
       </c>
       <c r="B222" s="46">
@@ -13943,7 +14542,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="45">
+      <c r="A223" s="52">
         <v>15073.6289929414</v>
       </c>
       <c r="B223" s="46">
@@ -13958,7 +14557,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="45">
+      <c r="A224" s="52">
         <v>15421.222805264801</v>
       </c>
       <c r="B224" s="46">
@@ -13973,7 +14572,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="45">
+      <c r="A225" s="52">
         <v>15776.8320369953</v>
       </c>
       <c r="B225" s="46">
@@ -13988,7 +14587,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="45">
+      <c r="A226" s="52">
         <v>16140.641521539101</v>
       </c>
       <c r="B226" s="46">
@@ -14003,7 +14602,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="45">
+      <c r="A227" s="52">
         <v>16512.840354510499</v>
       </c>
       <c r="B227" s="46">
@@ -14018,7 +14617,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="45">
+      <c r="A228" s="52">
         <v>16893.621992018001</v>
       </c>
       <c r="B228" s="46">
@@ -14033,7 +14632,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="45">
+      <c r="A229" s="52">
         <v>17283.184351215401</v>
       </c>
       <c r="B229" s="46">
@@ -14048,7 +14647,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="45">
+      <c r="A230" s="52">
         <v>17681.729913172701</v>
       </c>
       <c r="B230" s="46">
@@ -14063,7 +14662,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="45">
+      <c r="A231" s="52">
         <v>18089.4658281187</v>
       </c>
       <c r="B231" s="46">
@@ -14078,7 +14677,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="45">
+      <c r="A232" s="52">
         <v>18506.604023110402</v>
       </c>
       <c r="B232" s="46">
@@ -14093,7 +14692,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="45">
+      <c r="A233" s="52">
         <v>18933.3613121856</v>
       </c>
       <c r="B233" s="46">
@@ -14108,7 +14707,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="45">
+      <c r="A234" s="52">
         <v>19369.959509055199</v>
       </c>
       <c r="B234" s="46">
@@ -14123,7 +14722,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="45">
+      <c r="A235" s="52">
         <v>19816.625542394399</v>
       </c>
       <c r="B235" s="46">
@@ -14138,7 +14737,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="45">
+      <c r="A236" s="52">
         <v>20273.591573792099</v>
       </c>
       <c r="B236" s="46">
@@ -14153,7 +14752,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="45">
+      <c r="A237" s="52">
         <v>20741.095118421101</v>
       </c>
       <c r="B237" s="46">
@@ -14168,7 +14767,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="45">
+      <c r="A238" s="52">
         <v>21219.379168489701</v>
       </c>
       <c r="B238" s="46">
@@ -14183,7 +14782,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="45">
+      <c r="A239" s="52">
         <v>21708.692319540802</v>
       </c>
       <c r="B239" s="46">
@@ -14198,7 +14797,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="45">
+      <c r="A240" s="52">
         <v>22209.288899663599</v>
       </c>
       <c r="B240" s="46">
@@ -14213,7 +14812,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="45">
+      <c r="A241" s="52">
         <v>22721.429101684</v>
       </c>
       <c r="B241" s="46">
@@ -14228,7 +14827,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="45">
+      <c r="A242" s="52">
         <v>23245.379118404599</v>
       </c>
       <c r="B242" s="46">
@@ -14243,7 +14842,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="45">
+      <c r="A243" s="52">
         <v>23781.4112809617</v>
       </c>
       <c r="B243" s="46">
@@ -14258,7 +14857,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="45">
+      <c r="A244" s="52">
         <v>24329.804200374299</v>
       </c>
       <c r="B244" s="46">
@@ -14273,7 +14872,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="45">
+      <c r="A245" s="52">
         <v>24890.842912356002</v>
       </c>
       <c r="B245" s="46">
@@ -14288,7 +14887,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="45">
+      <c r="A246" s="52">
         <v>25464.819025467299</v>
       </c>
       <c r="B246" s="46">
@@ -14303,7 +14902,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="45">
+      <c r="A247" s="52">
         <v>26052.030872682899</v>
       </c>
       <c r="B247" s="46">
@@ -14318,7 +14917,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="45">
+      <c r="A248" s="52">
         <v>26652.7836664557</v>
       </c>
       <c r="B248" s="46">
@@ -14333,7 +14932,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="45">
+      <c r="A249" s="52">
         <v>27267.389657355001</v>
       </c>
       <c r="B249" s="46">
@@ -14348,7 +14947,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="45">
+      <c r="A250" s="52">
         <v>27896.168296364001</v>
       </c>
       <c r="B250" s="46">
@@ -14363,7 +14962,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="45">
+      <c r="A251" s="52">
         <v>28539.4464009193</v>
       </c>
       <c r="B251" s="46">
@@ -14378,7 +14977,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="45">
+      <c r="A252" s="52">
         <v>29197.558324779198</v>
       </c>
       <c r="B252" s="46">
@@ -14393,7 +14992,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="45">
+      <c r="A253" s="52">
         <v>29870.8461318095</v>
       </c>
       <c r="B253" s="46">
@@ -14408,7 +15007,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="45">
+      <c r="A254" s="52">
         <v>30559.659773776199</v>
       </c>
       <c r="B254" s="46">
@@ -14423,7 +15022,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="45">
+      <c r="A255" s="52">
         <v>31264.3572722385</v>
       </c>
       <c r="B255" s="46">
@@ -14438,7 +15037,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="45">
+      <c r="A256" s="52">
         <v>31985.304904635999</v>
       </c>
       <c r="B256" s="46">
@@ -14453,7 +15052,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="45">
+      <c r="A257" s="52">
         <v>32722.877394667099</v>
       </c>
       <c r="B257" s="46">
@@ -14468,7 +15067,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="45">
+      <c r="A258" s="52">
         <v>33477.458107057697</v>
       </c>
       <c r="B258" s="46">
@@ -14483,7 +15082,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="45">
+      <c r="A259" s="52">
         <v>34249.4392468203</v>
       </c>
       <c r="B259" s="46">
@@ -14498,7 +15097,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="45">
+      <c r="A260" s="52">
         <v>35039.222063109402</v>
       </c>
       <c r="B260" s="46">
@@ -14513,7 +15112,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="45">
+      <c r="A261" s="52">
         <v>35847.217057776397</v>
       </c>
       <c r="B261" s="46">
@@ -14528,7 +15127,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="45">
+      <c r="A262" s="52">
         <v>36673.8441987345</v>
       </c>
       <c r="B262" s="46">
@@ -14543,7 +15142,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="45">
+      <c r="A263" s="52">
         <v>37519.533138243503</v>
       </c>
       <c r="B263" s="46">
@@ -14558,7 +15157,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="45">
+      <c r="A264" s="52">
         <v>38384.723436228502</v>
       </c>
       <c r="B264" s="46">
@@ -14573,7 +15172,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="45">
+      <c r="A265" s="52">
         <v>39269.864788747298</v>
       </c>
       <c r="B265" s="46">
@@ -14588,7 +15187,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="45">
+      <c r="A266" s="52">
         <v>40175.4172617277</v>
       </c>
       <c r="B266" s="46">
@@ -14603,7 +15202,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="45">
+      <c r="A267" s="52">
         <v>41101.851530093198</v>
       </c>
       <c r="B267" s="46">
@@ -14618,7 +15217,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="45">
+      <c r="A268" s="52">
         <v>42049.649122404</v>
       </c>
       <c r="B268" s="46">
@@ -14633,7 +15232,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="45">
+      <c r="A269" s="52">
         <v>43019.302671138903</v>
       </c>
       <c r="B269" s="46">
@@ -14648,7 +15247,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="45">
+      <c r="A270" s="52">
         <v>44011.316168748497</v>
       </c>
       <c r="B270" s="46">
@@ -14663,7 +15262,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="45">
+      <c r="A271" s="52">
         <v>45026.205229613101</v>
       </c>
       <c r="B271" s="46">
@@ -14678,7 +15277,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="45">
+      <c r="A272" s="52">
         <v>46064.497358041299</v>
       </c>
       <c r="B272" s="46">
@@ -14693,7 +15292,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="45">
+      <c r="A273" s="52">
         <v>47126.7322224487</v>
       </c>
       <c r="B273" s="46">
@@ -14708,7 +15307,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="45">
+      <c r="A274" s="52">
         <v>48213.461935858599</v>
       </c>
       <c r="B274" s="46">
@@ -14723,7 +15322,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="45">
+      <c r="A275" s="52">
         <v>49325.251342871597</v>
       </c>
       <c r="B275" s="46">
@@ -14738,7 +15337,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="45">
+      <c r="A276" s="52">
         <v>50462.678313251999</v>
       </c>
       <c r="B276" s="46">
@@ -14753,7 +15352,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="45">
+      <c r="A277" s="52">
         <v>51626.334042285103</v>
       </c>
       <c r="B277" s="46">
@@ -14768,7 +15367,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="45">
+      <c r="A278" s="52">
         <v>52816.823358059301</v>
       </c>
       <c r="B278" s="46">
@@ -14783,7 +15382,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="45">
+      <c r="A279" s="52">
         <v>54034.765035835597</v>
       </c>
       <c r="B279" s="46">
@@ -14798,7 +15397,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="45">
+      <c r="A280" s="52">
         <v>55280.792119665399</v>
       </c>
       <c r="B280" s="46">
@@ -14813,7 +15412,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="45">
+      <c r="A281" s="52">
         <v>56555.5522514248</v>
       </c>
       <c r="B281" s="46">
@@ -14828,7 +15427,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="45">
+      <c r="A282" s="52">
         <v>57859.7080074365</v>
       </c>
       <c r="B282" s="46">
@@ -14843,7 +15442,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="45">
+      <c r="A283" s="52">
         <v>59193.937242854401</v>
       </c>
       <c r="B283" s="46">
@@ -14858,7 +15457,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="45">
+      <c r="A284" s="52">
         <v>60558.933443989001</v>
       </c>
       <c r="B284" s="46">
@@ -14873,7 +15472,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="45">
+      <c r="A285" s="52">
         <v>61955.406088757903</v>
       </c>
       <c r="B285" s="46">
@@ -14888,7 +15487,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="45">
+      <c r="A286" s="52">
         <v>63384.081015447497</v>
       </c>
       <c r="B286" s="46">
@@ -14903,7 +15502,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="45">
+      <c r="A287" s="52">
         <v>64845.7007999794</v>
       </c>
       <c r="B287" s="46">
@@ -14918,7 +15517,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="45">
+      <c r="A288" s="52">
         <v>66341.0251418751</v>
       </c>
       <c r="B288" s="46">
@@ -14933,7 +15532,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="45">
+      <c r="A289" s="52">
         <v>67870.831259121798</v>
       </c>
       <c r="B289" s="46">
@@ -14948,7 +15547,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="45">
+      <c r="A290" s="52">
         <v>69435.914292143701</v>
       </c>
       <c r="B290" s="46">
@@ -14963,7 +15562,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="45">
+      <c r="A291" s="52">
         <v>71037.087717088099</v>
       </c>
       <c r="B291" s="46">
@@ -14978,7 +15577,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="45">
+      <c r="A292" s="52">
         <v>72675.183768642702</v>
       </c>
       <c r="B292" s="46">
@@ -14993,7 +15592,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="45">
+      <c r="A293" s="52">
         <v>74351.053872602293</v>
       </c>
       <c r="B293" s="46">
@@ -15008,7 +15607,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="45">
+      <c r="A294" s="52">
         <v>76065.569088410295</v>
       </c>
       <c r="B294" s="46">
@@ -15023,7 +15622,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="45">
+      <c r="A295" s="52">
         <v>77819.6205619057</v>
       </c>
       <c r="B295" s="46">
@@ -15038,7 +15637,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="45">
+      <c r="A296" s="52">
         <v>79614.119988509803</v>
       </c>
       <c r="B296" s="46">
@@ -15053,7 +15652,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="45">
+      <c r="A297" s="52">
         <v>81450.000087093897</v>
       </c>
       <c r="B297" s="46">
@@ -15068,7 +15667,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="45">
+      <c r="A298" s="52">
         <v>83328.215084774594</v>
       </c>
       <c r="B298" s="46">
@@ -15083,7 +15682,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="45">
+      <c r="A299" s="52">
         <v>85249.741212887893</v>
       </c>
       <c r="B299" s="46">
@@ -15098,7 +15697,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="45">
+      <c r="A300" s="52">
         <v>87215.577214400895</v>
       </c>
       <c r="B300" s="46">
@@ -15113,7 +15712,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="45">
+      <c r="A301" s="52">
         <v>89226.744863023399</v>
       </c>
       <c r="B301" s="46">
@@ -15128,7 +15727,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="45">
+      <c r="A302" s="52">
         <v>91284.289494291195</v>
       </c>
       <c r="B302" s="46">
@@ -15143,7 +15742,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="45">
+      <c r="A303" s="52">
         <v>93389.280548894894</v>
       </c>
       <c r="B303" s="46">
@@ -15158,7 +15757,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="45">
+      <c r="A304" s="52">
         <v>95542.812128538601</v>
       </c>
       <c r="B304" s="46">
@@ -15173,7 +15772,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="45">
+      <c r="A305" s="52">
         <v>97746.003564616301</v>
       </c>
       <c r="B305" s="46">
@@ -15188,7 +15787,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="45">
+      <c r="A306" s="52">
         <v>100000.000000001</v>
       </c>
       <c r="B306" s="46">
@@ -15203,7 +15802,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="45">
+      <c r="A307" s="52">
         <v>102305.972984252</v>
       </c>
       <c r="B307" s="46">
@@ -15218,7 +15817,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="45">
+      <c r="A308" s="52">
         <v>104665.12108254401</v>
       </c>
       <c r="B308" s="46">
@@ -15233,7 +15832,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="45">
+      <c r="A309" s="52">
         <v>107078.670498641</v>
       </c>
       <c r="B309" s="46">
@@ -15248,7 +15847,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="45">
+      <c r="A310" s="52">
         <v>109547.87571223501</v>
       </c>
       <c r="B310" s="46">
@@ -15263,7 +15862,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="45">
+      <c r="A311" s="52">
         <v>112074.020130979</v>
       </c>
       <c r="B311" s="46">
@@ -15278,7 +15877,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="45">
+      <c r="A312" s="52">
         <v>114658.416757564</v>
       </c>
       <c r="B312" s="46">
@@ -15293,7 +15892,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="45">
+      <c r="A313" s="52">
         <v>117302.408872163</v>
       </c>
       <c r="B313" s="46">
@@ -15308,7 +15907,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="45">
+      <c r="A314" s="52">
         <v>120007.37073063001</v>
       </c>
       <c r="B314" s="46">
@@ -15323,7 +15922,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="45">
+      <c r="A315" s="52">
         <v>122774.70827878801</v>
       </c>
       <c r="B315" s="46">
@@ -15338,7 +15937,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="45">
+      <c r="A316" s="52">
         <v>125605.85988319</v>
       </c>
       <c r="B316" s="46">
@@ -15353,7 +15952,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="45">
+      <c r="A317" s="52">
         <v>128502.29707873199</v>
       </c>
       <c r="B317" s="46">
@@ -15368,7 +15967,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="45">
+      <c r="A318" s="52">
         <v>131465.52533351001</v>
       </c>
       <c r="B318" s="46">
@@ -15383,7 +15982,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="45">
+      <c r="A319" s="52">
         <v>134497.084831304</v>
       </c>
       <c r="B319" s="46">
@@ -15398,7 +15997,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="45">
+      <c r="A320" s="52">
         <v>137598.55127211899</v>
       </c>
       <c r="B320" s="46">
@@ -15413,7 +16012,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="45">
+      <c r="A321" s="52">
         <v>140771.536691174</v>
       </c>
       <c r="B321" s="46">
@@ -15428,7 +16027,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="45">
+      <c r="A322" s="52">
         <v>144017.690296788</v>
       </c>
       <c r="B322" s="46">
@@ -15443,7 +16042,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="45">
+      <c r="A323" s="52">
         <v>147338.699327574</v>
       </c>
       <c r="B323" s="46">
@@ -15458,7 +16057,7 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="45">
+      <c r="A324" s="52">
         <v>150736.28992941399</v>
       </c>
       <c r="B324" s="46">
@@ -15473,7 +16072,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="45">
+      <c r="A325" s="52">
         <v>154212.22805264901</v>
       </c>
       <c r="B325" s="46">
@@ -15488,7 +16087,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="45">
+      <c r="A326" s="52">
         <v>157768.32036995399</v>
       </c>
       <c r="B326" s="46">
@@ -15503,7 +16102,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="45">
+      <c r="A327" s="52">
         <v>161406.415215391</v>
       </c>
       <c r="B327" s="46">
@@ -15518,7 +16117,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="45">
+      <c r="A328" s="52">
         <v>165128.403545106</v>
       </c>
       <c r="B328" s="46">
@@ -15533,7 +16132,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="45">
+      <c r="A329" s="52">
         <v>168936.219920181</v>
       </c>
       <c r="B329" s="46">
@@ -15548,7 +16147,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="45">
+      <c r="A330" s="52">
         <v>172831.843512155</v>
       </c>
       <c r="B330" s="46">
@@ -15563,7 +16162,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="45">
+      <c r="A331" s="52">
         <v>176817.29913172801</v>
       </c>
       <c r="B331" s="46">
@@ -15578,7 +16177,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="45">
+      <c r="A332" s="52">
         <v>180894.65828118799</v>
       </c>
       <c r="B332" s="46">
@@ -15593,7 +16192,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="45">
+      <c r="A333" s="52">
         <v>185066.040231105</v>
       </c>
       <c r="B333" s="46">
@@ -15608,7 +16207,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="45">
+      <c r="A334" s="52">
         <v>189333.61312185699</v>
       </c>
       <c r="B334" s="46">
@@ -15623,7 +16222,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="45">
+      <c r="A335" s="52">
         <v>193699.59509055299</v>
       </c>
       <c r="B335" s="46">
@@ -15638,7 +16237,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="45">
+      <c r="A336" s="52">
         <v>198166.25542394401</v>
       </c>
       <c r="B336" s="46">
@@ -15653,7 +16252,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="45">
+      <c r="A337" s="52">
         <v>202735.91573792201</v>
       </c>
       <c r="B337" s="46">
@@ -15668,7 +16267,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="45">
+      <c r="A338" s="52">
         <v>207410.951184212</v>
       </c>
       <c r="B338" s="46">
@@ -15683,7 +16282,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="45">
+      <c r="A339" s="52">
         <v>212193.79168489799</v>
       </c>
       <c r="B339" s="46">
@@ -15698,7 +16297,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="45">
+      <c r="A340" s="52">
         <v>217086.92319540901</v>
       </c>
       <c r="B340" s="46">
@@ -15713,7 +16312,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="45">
+      <c r="A341" s="52">
         <v>222092.88899663699</v>
       </c>
       <c r="B341" s="46">
@@ -15728,7 +16327,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="45">
+      <c r="A342" s="52">
         <v>227214.29101684099</v>
       </c>
       <c r="B342" s="46">
@@ -15743,7 +16342,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="45">
+      <c r="A343" s="52">
         <v>232453.791184047</v>
       </c>
       <c r="B343" s="46">
@@ -15758,7 +16357,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="45">
+      <c r="A344" s="52">
         <v>237814.112809618</v>
       </c>
       <c r="B344" s="46">
@@ -15773,7 +16372,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="45">
+      <c r="A345" s="52">
         <v>243298.04200374399</v>
       </c>
       <c r="B345" s="46">
@@ -15788,7 +16387,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="45">
+      <c r="A346" s="52">
         <v>248908.42912356101</v>
       </c>
       <c r="B346" s="46">
@@ -15803,7 +16402,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="45">
+      <c r="A347" s="52">
         <v>254648.190254674</v>
       </c>
       <c r="B347" s="46">
@@ -15818,7 +16417,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="45">
+      <c r="A348" s="52">
         <v>260520.30872683</v>
       </c>
       <c r="B348" s="46">
@@ -15833,7 +16432,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="45">
+      <c r="A349" s="52">
         <v>266527.83666455798</v>
       </c>
       <c r="B349" s="46">
@@ -15848,7 +16447,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="45">
+      <c r="A350" s="52">
         <v>272673.896573551</v>
       </c>
       <c r="B350" s="46">
@@ -15863,7 +16462,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="45">
+      <c r="A351" s="52">
         <v>278961.68296364101</v>
       </c>
       <c r="B351" s="46">
@@ -15878,7 +16477,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="45">
+      <c r="A352" s="52">
         <v>285394.46400919399</v>
       </c>
       <c r="B352" s="46">
@@ -15893,7 +16492,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="45">
+      <c r="A353" s="52">
         <v>291975.58324779401</v>
       </c>
       <c r="B353" s="46">
@@ -15908,7 +16507,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="45">
+      <c r="A354" s="52">
         <v>298708.46131809702</v>
       </c>
       <c r="B354" s="46">
@@ -15923,7 +16522,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="45">
+      <c r="A355" s="52">
         <v>305596.59773776302</v>
       </c>
       <c r="B355" s="46">
@@ -15938,7 +16537,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="45">
+      <c r="A356" s="52">
         <v>312643.57272238599</v>
       </c>
       <c r="B356" s="46">
@@ -15953,7 +16552,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="45">
+      <c r="A357" s="52">
         <v>319853.049046361</v>
       </c>
       <c r="B357" s="46">
@@ -15968,7 +16567,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="45">
+      <c r="A358" s="52">
         <v>327228.77394667303</v>
       </c>
       <c r="B358" s="46">
@@ -15983,7 +16582,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="45">
+      <c r="A359" s="52">
         <v>334774.58107057802</v>
       </c>
       <c r="B359" s="46">
@@ -15998,7 +16597,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="45">
+      <c r="A360" s="52">
         <v>342494.39246820501</v>
       </c>
       <c r="B360" s="46">
@@ -16013,7 +16612,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="45">
+      <c r="A361" s="52">
         <v>350392.22063109599</v>
       </c>
       <c r="B361" s="46">
@@ -16028,7 +16627,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="45">
+      <c r="A362" s="52">
         <v>358472.17057776498</v>
       </c>
       <c r="B362" s="46">
@@ -16043,7 +16642,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="45">
+      <c r="A363" s="52">
         <v>366738.44198734598</v>
       </c>
       <c r="B363" s="46">
@@ -16058,7 +16657,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="45">
+      <c r="A364" s="52">
         <v>375195.33138243703</v>
       </c>
       <c r="B364" s="46">
@@ -16073,7 +16672,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="45">
+      <c r="A365" s="52">
         <v>383847.23436228698</v>
       </c>
       <c r="B365" s="46">
@@ -16088,7 +16687,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="45">
+      <c r="A366" s="52">
         <v>392698.64788747497</v>
       </c>
       <c r="B366" s="46">
@@ -16103,7 +16702,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="45">
+      <c r="A367" s="52">
         <v>401754.172617278</v>
       </c>
       <c r="B367" s="46">
@@ -16118,7 +16717,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="45">
+      <c r="A368" s="52">
         <v>411018.51530093298</v>
       </c>
       <c r="B368" s="46">
@@ -16133,7 +16732,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="45">
+      <c r="A369" s="52">
         <v>420496.49122404202</v>
       </c>
       <c r="B369" s="46">
@@ -16148,7 +16747,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="45">
+      <c r="A370" s="52">
         <v>430193.02671139099</v>
       </c>
       <c r="B370" s="46">
@@ -16163,7 +16762,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="45">
+      <c r="A371" s="52">
         <v>440113.16168748698</v>
       </c>
       <c r="B371" s="46">
@@ -16178,7 +16777,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="45">
+      <c r="A372" s="52">
         <v>450262.05229613301</v>
       </c>
       <c r="B372" s="46">
@@ -16193,7 +16792,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="45">
+      <c r="A373" s="52">
         <v>460644.97358041501</v>
       </c>
       <c r="B373" s="46">
@@ -16208,7 +16807,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="45">
+      <c r="A374" s="52">
         <v>471267.32222448901</v>
       </c>
       <c r="B374" s="46">
@@ -16223,7 +16822,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="45">
+      <c r="A375" s="52">
         <v>482134.61935858801</v>
       </c>
       <c r="B375" s="46">
@@ -16238,7 +16837,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="45">
+      <c r="A376" s="52">
         <v>493252.51342871803</v>
       </c>
       <c r="B376" s="46">
@@ -16253,7 +16852,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="45">
+      <c r="A377" s="52">
         <v>504626.78313252202</v>
       </c>
       <c r="B377" s="46">
@@ -16268,7 +16867,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="45">
+      <c r="A378" s="52">
         <v>516263.34042285202</v>
       </c>
       <c r="B378" s="46">
@@ -16283,7 +16882,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="45">
+      <c r="A379" s="52">
         <v>528168.23358059395</v>
       </c>
       <c r="B379" s="46">
@@ -16298,7 +16897,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="45">
+      <c r="A380" s="52">
         <v>540347.65035835805</v>
       </c>
       <c r="B380" s="46">
@@ -16313,7 +16912,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="45">
+      <c r="A381" s="52">
         <v>552807.92119665595</v>
       </c>
       <c r="B381" s="46">
@@ -16328,7 +16927,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="45">
+      <c r="A382" s="52">
         <v>565555.52251425001</v>
       </c>
       <c r="B382" s="46">
@@ -16343,7 +16942,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="45">
+      <c r="A383" s="52">
         <v>578597.080074367</v>
       </c>
       <c r="B383" s="46">
@@ -16358,7 +16957,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="45">
+      <c r="A384" s="52">
         <v>591939.37242854596</v>
       </c>
       <c r="B384" s="46">
@@ -16373,7 +16972,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="45">
+      <c r="A385" s="52">
         <v>605589.33443989302</v>
       </c>
       <c r="B385" s="46">
@@ -16388,7 +16987,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="45">
+      <c r="A386" s="52">
         <v>619554.06088758097</v>
       </c>
       <c r="B386" s="46">
@@ -16403,7 +17002,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="45">
+      <c r="A387" s="52">
         <v>633840.81015447795</v>
       </c>
       <c r="B387" s="46">
@@ -16418,7 +17017,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="45">
+      <c r="A388" s="52">
         <v>648457.007999797</v>
       </c>
       <c r="B388" s="46">
@@ -16433,7 +17032,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="45">
+      <c r="A389" s="52">
         <v>663410.25141875399</v>
       </c>
       <c r="B389" s="46">
@@ -16448,7 +17047,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="45">
+      <c r="A390" s="52">
         <v>678708.31259122095</v>
       </c>
       <c r="B390" s="46">
@@ -16463,7 +17062,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="45">
+      <c r="A391" s="52">
         <v>694359.14292143902</v>
       </c>
       <c r="B391" s="46">
@@ -16478,7 +17077,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="45">
+      <c r="A392" s="52">
         <v>710370.877170883</v>
       </c>
       <c r="B392" s="46">
@@ -16493,7 +17092,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="45">
+      <c r="A393" s="52">
         <v>726751.83768642996</v>
       </c>
       <c r="B393" s="46">
@@ -16508,7 +17107,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="45">
+      <c r="A394" s="52">
         <v>743510.53872602596</v>
       </c>
       <c r="B394" s="46">
@@ -16523,7 +17122,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="45">
+      <c r="A395" s="52">
         <v>760655.69088410598</v>
       </c>
       <c r="B395" s="46">
@@ -16538,7 +17137,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="45">
+      <c r="A396" s="52">
         <v>778196.20561905997</v>
       </c>
       <c r="B396" s="46">
@@ -16553,7 +17152,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="45">
+      <c r="A397" s="52">
         <v>796141.19988510106</v>
       </c>
       <c r="B397" s="46">
@@ -16568,7 +17167,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="45">
+      <c r="A398" s="52">
         <v>814500.00087094202</v>
       </c>
       <c r="B398" s="46">
@@ -16583,7 +17182,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="45">
+      <c r="A399" s="52">
         <v>833282.15084774897</v>
       </c>
       <c r="B399" s="46">
@@ -16598,7 +17197,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="45">
+      <c r="A400" s="52">
         <v>852497.41212888202</v>
       </c>
       <c r="B400" s="46">
@@ -16613,7 +17212,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="45">
+      <c r="A401" s="52">
         <v>872155.77214401204</v>
       </c>
       <c r="B401" s="46">
@@ -16628,7 +17227,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="45">
+      <c r="A402" s="52">
         <v>892267.44863023795</v>
       </c>
       <c r="B402" s="46">
@@ -16643,7 +17242,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="45">
+      <c r="A403" s="52">
         <v>912842.89494291495</v>
       </c>
       <c r="B403" s="46">
@@ -16658,7 +17257,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="45">
+      <c r="A404" s="52">
         <v>933892.80548895197</v>
       </c>
       <c r="B404" s="46">
@@ -16673,7 +17272,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="45">
+      <c r="A405" s="52">
         <v>955428.12128538999</v>
       </c>
       <c r="B405" s="46">
@@ -16688,7 +17287,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="45">
+      <c r="A406" s="52">
         <v>977460.035646167</v>
       </c>
       <c r="B406" s="46">
@@ -16703,7 +17302,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="45">
+      <c r="A407" s="52">
         <v>1000000</v>
       </c>
       <c r="B407" s="46">
@@ -16726,9 +17325,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16736,7 +17337,7 @@
     <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -16747,7 +17348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16758,131 +17359,1059 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>-5</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-4.9958</v>
+      </c>
+      <c r="C3">
+        <v>-4.6086</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>-4.5</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>-4.4969999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-4.609</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>-4</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-3.9964</v>
+      </c>
+      <c r="C5">
+        <v>-4.5380000000000003</v>
+      </c>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>-3.5</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>-3.4952000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>-3</v>
       </c>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-2.9945999999999899</v>
+      </c>
+      <c r="C7">
+        <v>-3.6067999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-2.5</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>-2.4969999999999999</v>
+      </c>
+      <c r="C8">
+        <v>-3.113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-2</v>
       </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>-1.998</v>
+      </c>
+      <c r="C9">
+        <v>-2.613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>-1.5</v>
       </c>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>-1.4945999999999999</v>
+      </c>
+      <c r="C10">
+        <v>-2.113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>-1</v>
       </c>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>-0.994999999999999</v>
+      </c>
+      <c r="C11">
+        <v>-1.613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>-0.5</v>
       </c>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>-0.495</v>
+      </c>
+      <c r="C12">
+        <v>-1.1117999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>-0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.5</v>
       </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C14">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1.008</v>
+      </c>
+      <c r="C15">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.5</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.387</v>
+      </c>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2.5</v>
       </c>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2.508</v>
+      </c>
+      <c r="C18">
+        <v>1.8879999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.3872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3.5</v>
       </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3.5064000000000002</v>
+      </c>
+      <c r="C20">
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="C21">
+        <v>3.3877999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4.5</v>
       </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="C22">
+        <v>3.8869999999999898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23"/>
+      <c r="B23">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="C23">
+        <v>4.3840000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>-5</v>
+      </c>
+      <c r="D96">
+        <v>-4.5</v>
+      </c>
+      <c r="E96">
+        <v>-4</v>
+      </c>
+      <c r="F96">
+        <v>-3.5</v>
+      </c>
+      <c r="G96">
+        <v>-3</v>
+      </c>
+      <c r="H96">
+        <v>-2.5</v>
+      </c>
+      <c r="I96">
+        <v>-2</v>
+      </c>
+      <c r="J96">
+        <v>-1.5</v>
+      </c>
+      <c r="K96">
+        <v>-1</v>
+      </c>
+      <c r="L96">
+        <v>-0.5</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0.5</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1.5</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <v>2.5</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
+        <v>4</v>
+      </c>
+      <c r="V96">
+        <v>4.5</v>
+      </c>
+      <c r="W96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>-4.9958</v>
+      </c>
+      <c r="D97">
+        <v>-4.4969999999999999</v>
+      </c>
+      <c r="E97">
+        <v>-3.9964</v>
+      </c>
+      <c r="F97">
+        <v>-3.4952000000000001</v>
+      </c>
+      <c r="G97">
+        <v>-2.9945999999999899</v>
+      </c>
+      <c r="H97">
+        <v>-2.4969999999999999</v>
+      </c>
+      <c r="I97">
+        <v>-1.998</v>
+      </c>
+      <c r="J97">
+        <v>-1.4945999999999999</v>
+      </c>
+      <c r="K97">
+        <v>-0.994999999999999</v>
+      </c>
+      <c r="L97">
+        <v>-0.495</v>
+      </c>
+      <c r="M97">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N97">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="O97">
+        <v>1.008</v>
+      </c>
+      <c r="P97">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="Q97">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="R97">
+        <v>2.508</v>
+      </c>
+      <c r="S97">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="T97">
+        <v>3.5064000000000002</v>
+      </c>
+      <c r="U97">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="V97">
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="W97">
+        <v>5.0039999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>-4.6086</v>
+      </c>
+      <c r="D98">
+        <v>-4.609</v>
+      </c>
+      <c r="E98">
+        <v>-4.5380000000000003</v>
+      </c>
+      <c r="F98">
+        <v>-4.09</v>
+      </c>
+      <c r="G98">
+        <v>-3.6067999999999998</v>
+      </c>
+      <c r="H98">
+        <v>-3.113</v>
+      </c>
+      <c r="I98">
+        <v>-2.613</v>
+      </c>
+      <c r="J98">
+        <v>-2.113</v>
+      </c>
+      <c r="K98">
+        <v>-1.613</v>
+      </c>
+      <c r="L98">
+        <v>-1.1117999999999999</v>
+      </c>
+      <c r="M98">
+        <v>-0.61299999999999999</v>
+      </c>
+      <c r="N98">
+        <v>-0.113</v>
+      </c>
+      <c r="O98">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="P98">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q98">
+        <v>1.387</v>
+      </c>
+      <c r="R98">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="S98">
+        <v>2.3872</v>
+      </c>
+      <c r="T98">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="U98">
+        <v>3.3877999999999999</v>
+      </c>
+      <c r="V98">
+        <v>3.8869999999999898</v>
+      </c>
+      <c r="W98">
+        <v>4.3840000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>-5</v>
+      </c>
+      <c r="D103">
+        <v>-4.5</v>
+      </c>
+      <c r="E103">
+        <v>-4</v>
+      </c>
+      <c r="F103">
+        <v>-3.5</v>
+      </c>
+      <c r="G103">
+        <v>-3</v>
+      </c>
+      <c r="H103">
+        <v>-2.5</v>
+      </c>
+      <c r="I103">
+        <v>-2</v>
+      </c>
+      <c r="J103">
+        <v>-1.5</v>
+      </c>
+      <c r="K103">
+        <v>-1</v>
+      </c>
+      <c r="L103">
+        <v>-0.5</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0.5</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1.5</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>2.5</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>3.5</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>4.5</v>
+      </c>
+      <c r="W103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>-5.0079999999999902</v>
+      </c>
+      <c r="D104">
+        <v>-4.5090000000000003</v>
+      </c>
+      <c r="E104">
+        <v>-4.008</v>
+      </c>
+      <c r="F104">
+        <v>-3.5062000000000002</v>
+      </c>
+      <c r="G104">
+        <v>-3.0049999999999999</v>
+      </c>
+      <c r="H104">
+        <v>-2.5051999999999999</v>
+      </c>
+      <c r="I104">
+        <v>-2.0070000000000001</v>
+      </c>
+      <c r="J104">
+        <v>-1.5049999999999999</v>
+      </c>
+      <c r="K104">
+        <v>-1.004</v>
+      </c>
+      <c r="L104">
+        <v>-0.503</v>
+      </c>
+      <c r="M104">
+        <v>-2E-3</v>
+      </c>
+      <c r="N104">
+        <v>0.499</v>
+      </c>
+      <c r="O104">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="P104">
+        <v>1.5007999999999999</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>2.4988000000000001</v>
+      </c>
+      <c r="S104">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="T104">
+        <v>3.5</v>
+      </c>
+      <c r="U104">
+        <v>3.9994000000000001</v>
+      </c>
+      <c r="V104">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="W104">
+        <v>4.9968000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>-0.11119999999999999</v>
+      </c>
+      <c r="D105">
+        <v>-0.46739999999999998</v>
+      </c>
+      <c r="E105">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="F105">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="G105">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="H105">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="I105">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J105">
+        <v>-3.3999999999999898E-3</v>
+      </c>
+      <c r="K105">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="L105">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="M105">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N105">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O105">
+        <v>0.52079999999999904</v>
+      </c>
+      <c r="P105">
+        <v>1.0044</v>
+      </c>
+      <c r="Q105">
+        <v>1.4956</v>
+      </c>
+      <c r="R105">
+        <v>1.988</v>
+      </c>
+      <c r="S105">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="T105">
+        <v>2.9771999999999998</v>
+      </c>
+      <c r="U105">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="V105">
+        <v>3.9717999999999898</v>
+      </c>
+      <c r="W105">
+        <v>4.4676</v>
+      </c>
+    </row>
+    <row r="107" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>-5</v>
+      </c>
+      <c r="F107">
+        <v>-5.0079999999999902</v>
+      </c>
+      <c r="G107">
+        <v>-0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>-4.5</v>
+      </c>
+      <c r="F108">
+        <v>-4.5090000000000003</v>
+      </c>
+      <c r="G108">
+        <v>-0.46739999999999998</v>
+      </c>
+      <c r="J108">
+        <v>-5</v>
+      </c>
+      <c r="K108">
+        <v>-4.9958</v>
+      </c>
+      <c r="L108">
+        <v>-4.6086</v>
+      </c>
+    </row>
+    <row r="109" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>-4</v>
+      </c>
+      <c r="F109">
+        <v>-4.008</v>
+      </c>
+      <c r="G109">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="J109">
+        <v>-4.5</v>
+      </c>
+      <c r="K109">
+        <v>-4.4969999999999999</v>
+      </c>
+      <c r="L109">
+        <v>-4.609</v>
+      </c>
+    </row>
+    <row r="110" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>-3.5</v>
+      </c>
+      <c r="F110">
+        <v>-3.5062000000000002</v>
+      </c>
+      <c r="G110">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="J110">
+        <v>-4</v>
+      </c>
+      <c r="K110">
+        <v>-3.9964</v>
+      </c>
+      <c r="L110">
+        <v>-4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>-3</v>
+      </c>
+      <c r="F111">
+        <v>-3.0049999999999999</v>
+      </c>
+      <c r="G111">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="J111">
+        <v>-3.5</v>
+      </c>
+      <c r="K111">
+        <v>-3.4952000000000001</v>
+      </c>
+      <c r="L111">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="112" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>-2.5</v>
+      </c>
+      <c r="F112">
+        <v>-2.5051999999999999</v>
+      </c>
+      <c r="G112">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J112">
+        <v>-3</v>
+      </c>
+      <c r="K112">
+        <v>-2.9945999999999899</v>
+      </c>
+      <c r="L112">
+        <v>-3.6067999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>-2</v>
+      </c>
+      <c r="F113">
+        <v>-2.0070000000000001</v>
+      </c>
+      <c r="G113">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J113">
+        <v>-2.5</v>
+      </c>
+      <c r="K113">
+        <v>-2.4969999999999999</v>
+      </c>
+      <c r="L113">
+        <v>-3.113</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>-1.5</v>
+      </c>
+      <c r="F114">
+        <v>-1.5049999999999999</v>
+      </c>
+      <c r="G114">
+        <v>-3.3999999999999898E-3</v>
+      </c>
+      <c r="J114">
+        <v>-2</v>
+      </c>
+      <c r="K114">
+        <v>-1.998</v>
+      </c>
+      <c r="L114">
+        <v>-2.613</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>-1</v>
+      </c>
+      <c r="F115">
+        <v>-1.004</v>
+      </c>
+      <c r="G115">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="J115">
+        <v>-1.5</v>
+      </c>
+      <c r="K115">
+        <v>-1.4945999999999999</v>
+      </c>
+      <c r="L115">
+        <v>-2.113</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>-0.5</v>
+      </c>
+      <c r="F116">
+        <v>-0.503</v>
+      </c>
+      <c r="G116">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="J116">
+        <v>-1</v>
+      </c>
+      <c r="K116">
+        <v>-0.994999999999999</v>
+      </c>
+      <c r="L116">
+        <v>-1.613</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>-2E-3</v>
+      </c>
+      <c r="G117">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J117">
+        <v>-0.5</v>
+      </c>
+      <c r="K117">
+        <v>-0.495</v>
+      </c>
+      <c r="L117">
+        <v>-1.1117999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>0.5</v>
+      </c>
+      <c r="F118">
+        <v>0.499</v>
+      </c>
+      <c r="G118">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L118">
+        <v>-0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="G119">
+        <v>0.52079999999999904</v>
+      </c>
+      <c r="J119">
+        <v>0.5</v>
+      </c>
+      <c r="K119">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L119">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="120" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>1.5</v>
+      </c>
+      <c r="F120">
+        <v>1.5007999999999999</v>
+      </c>
+      <c r="G120">
+        <v>1.0044</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1.008</v>
+      </c>
+      <c r="L120">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1.4956</v>
+      </c>
+      <c r="J121">
+        <v>1.5</v>
+      </c>
+      <c r="K121">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="L121">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>2.5</v>
+      </c>
+      <c r="F122">
+        <v>2.4988000000000001</v>
+      </c>
+      <c r="G122">
+        <v>1.988</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="L122">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="123" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="G123">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="J123">
+        <v>2.5</v>
+      </c>
+      <c r="K123">
+        <v>2.508</v>
+      </c>
+      <c r="L123">
+        <v>1.8879999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>3.5</v>
+      </c>
+      <c r="F124">
+        <v>3.5</v>
+      </c>
+      <c r="G124">
+        <v>2.9771999999999998</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="L124">
+        <v>2.3872</v>
+      </c>
+    </row>
+    <row r="125" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>3.9994000000000001</v>
+      </c>
+      <c r="G125">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="J125">
+        <v>3.5</v>
+      </c>
+      <c r="K125">
+        <v>3.5064000000000002</v>
+      </c>
+      <c r="L125">
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>4.5</v>
+      </c>
+      <c r="F126">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="G126">
+        <v>3.9717999999999898</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="L126">
+        <v>3.3877999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>4.9968000000000004</v>
+      </c>
+      <c r="G127">
+        <v>4.4676</v>
+      </c>
+      <c r="J127">
+        <v>4.5</v>
+      </c>
+      <c r="K127">
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="L127">
+        <v>3.8869999999999898</v>
+      </c>
+    </row>
+    <row r="128" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>5</v>
+      </c>
+      <c r="K128">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="L128">
+        <v>4.3840000000000003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -16895,7 +18424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" zoomScale="260" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16919,11 +18450,15 @@
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="23" t="e">
+      <c r="A2" s="4">
+        <v>1.9289000000000001E-3</v>
+      </c>
+      <c r="B2" s="49">
+        <v>2.1204000000000001E-3</v>
+      </c>
+      <c r="C2" s="23">
         <f>20*LOG10(B2/A2)</f>
-        <v>#DIV/0!</v>
+        <v>0.82216164928243307</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
@@ -17033,7 +18568,7 @@
         <v>0.5803919999999998</v>
       </c>
       <c r="F4" s="6">
-        <f>5-D4</f>
+        <f t="shared" ref="F4:F35" si="1">5-D4</f>
         <v>8.8576090000000001</v>
       </c>
     </row>
@@ -17055,7 +18590,7 @@
         <v>0.58331399999999967</v>
       </c>
       <c r="F5" s="6">
-        <f>5-D5</f>
+        <f t="shared" si="1"/>
         <v>8.7544749999999993</v>
       </c>
     </row>
@@ -17077,7 +18612,7 @@
         <v>0.58614500000000014</v>
       </c>
       <c r="F6" s="6">
-        <f>5-D6</f>
+        <f t="shared" si="1"/>
         <v>8.651406999999999</v>
       </c>
     </row>
@@ -17099,7 +18634,7 @@
         <v>0.58877100000000038</v>
       </c>
       <c r="F7" s="6">
-        <f>5-D7</f>
+        <f t="shared" si="1"/>
         <v>8.5484729999999995</v>
       </c>
     </row>
@@ -17121,7 +18656,7 @@
         <v>0.59121600000000019</v>
       </c>
       <c r="F8" s="6">
-        <f>5-D8</f>
+        <f t="shared" si="1"/>
         <v>8.4456710000000008</v>
       </c>
     </row>
@@ -17143,7 +18678,7 @@
         <v>0.59350300000000011</v>
       </c>
       <c r="F9" s="6">
-        <f>5-D9</f>
+        <f t="shared" si="1"/>
         <v>8.3430029999999995</v>
       </c>
     </row>
@@ -17165,7 +18700,7 @@
         <v>0.59565200000000029</v>
       </c>
       <c r="F10" s="6">
-        <f>5-D10</f>
+        <f t="shared" si="1"/>
         <v>8.2404700000000002</v>
       </c>
     </row>
@@ -17187,7 +18722,7 @@
         <v>0.59767900000000029</v>
       </c>
       <c r="F11" s="6">
-        <f>5-D11</f>
+        <f t="shared" si="1"/>
         <v>8.1380720000000011</v>
       </c>
     </row>
@@ -17209,7 +18744,7 @@
         <v>0.59959600000000002</v>
       </c>
       <c r="F12" s="6">
-        <f>5-D12</f>
+        <f t="shared" si="1"/>
         <v>8.0358079999999994</v>
       </c>
     </row>
@@ -17231,7 +18766,7 @@
         <v>0.60141500000000025</v>
       </c>
       <c r="F13" s="6">
-        <f>5-D13</f>
+        <f t="shared" si="1"/>
         <v>7.933681</v>
       </c>
     </row>
@@ -17253,7 +18788,7 @@
         <v>0.60314599999999974</v>
       </c>
       <c r="F14" s="6">
-        <f>5-D14</f>
+        <f t="shared" si="1"/>
         <v>7.8316889999999999</v>
       </c>
     </row>
@@ -17275,7 +18810,7 @@
         <v>0.60479600000000033</v>
       </c>
       <c r="F15" s="6">
-        <f>5-D15</f>
+        <f t="shared" si="1"/>
         <v>7.7298340000000003</v>
       </c>
     </row>
@@ -17297,7 +18832,7 @@
         <v>0.60637299999999961</v>
       </c>
       <c r="F16" s="6">
-        <f>5-D16</f>
+        <f t="shared" si="1"/>
         <v>7.6281150000000002</v>
       </c>
     </row>
@@ -17319,7 +18854,7 @@
         <v>0.60788300000000017</v>
       </c>
       <c r="F17" s="6">
-        <f>5-D17</f>
+        <f t="shared" si="1"/>
         <v>7.5265319999999996</v>
       </c>
     </row>
@@ -17341,7 +18876,7 @@
         <v>0.60933300000000035</v>
       </c>
       <c r="F18" s="6">
-        <f>5-D18</f>
+        <f t="shared" si="1"/>
         <v>7.4250850000000002</v>
       </c>
     </row>
@@ -17363,7 +18898,7 @@
         <v>0.61072500000000041</v>
       </c>
       <c r="F19" s="6">
-        <f>5-D19</f>
+        <f t="shared" si="1"/>
         <v>7.3237749999999995</v>
       </c>
     </row>
@@ -17385,7 +18920,7 @@
         <v>0.6120650000000003</v>
       </c>
       <c r="F20" s="6">
-        <f>5-D20</f>
+        <f t="shared" si="1"/>
         <v>7.222601</v>
       </c>
     </row>
@@ -17407,7 +18942,7 @@
         <v>0.61335599999999957</v>
       </c>
       <c r="F21" s="6">
-        <f>5-D21</f>
+        <f t="shared" si="1"/>
         <v>7.1215630000000001</v>
       </c>
     </row>
@@ -17429,7 +18964,7 @@
         <v>0.61460299999999979</v>
       </c>
       <c r="F22" s="6">
-        <f>5-D22</f>
+        <f t="shared" si="1"/>
         <v>7.0206619999999997</v>
       </c>
     </row>
@@ -17451,7 +18986,7 @@
         <v>0.61580700000000022</v>
       </c>
       <c r="F23" s="6">
-        <f>5-D23</f>
+        <f t="shared" si="1"/>
         <v>6.9198969999999997</v>
       </c>
     </row>
@@ -17473,7 +19008,7 @@
         <v>0.61697199999999963</v>
       </c>
       <c r="F24" s="6">
-        <f>5-D24</f>
+        <f t="shared" si="1"/>
         <v>6.8192690000000002</v>
       </c>
     </row>
@@ -17495,7 +19030,7 @@
         <v>0.61810000000000009</v>
       </c>
       <c r="F25" s="6">
-        <f>5-D25</f>
+        <f t="shared" si="1"/>
         <v>6.7187770000000002</v>
       </c>
     </row>
@@ -17517,7 +19052,7 @@
         <v>0.61919400000000024</v>
       </c>
       <c r="F26" s="6">
-        <f>5-D26</f>
+        <f t="shared" si="1"/>
         <v>6.6184200000000004</v>
       </c>
     </row>
@@ -17539,7 +19074,7 @@
         <v>0.62025500000000022</v>
       </c>
       <c r="F27" s="6">
-        <f>5-D27</f>
+        <f t="shared" si="1"/>
         <v>6.5182000000000002</v>
       </c>
     </row>
@@ -17561,7 +19096,7 @@
         <v>0.62128500000000031</v>
       </c>
       <c r="F28" s="6">
-        <f>5-D28</f>
+        <f t="shared" si="1"/>
         <v>6.4181159999999995</v>
       </c>
     </row>
@@ -17583,7 +19118,7 @@
         <v>0.62228700000000003</v>
       </c>
       <c r="F29" s="6">
-        <f>5-D29</f>
+        <f t="shared" si="1"/>
         <v>6.3181669999999999</v>
       </c>
     </row>
@@ -17605,7 +19140,7 @@
         <v>0.62326200000000043</v>
       </c>
       <c r="F30" s="6">
-        <f>5-D30</f>
+        <f t="shared" si="1"/>
         <v>6.2183539999999997</v>
       </c>
     </row>
@@ -17627,7 +19162,7 @@
         <v>0.62420999999999971</v>
       </c>
       <c r="F31" s="6">
-        <f>5-D31</f>
+        <f t="shared" si="1"/>
         <v>6.1186759999999998</v>
       </c>
     </row>
@@ -17649,7 +19184,7 @@
         <v>0.62513400000000008</v>
       </c>
       <c r="F32" s="6">
-        <f>5-D32</f>
+        <f t="shared" si="1"/>
         <v>6.0191340000000002</v>
       </c>
     </row>
@@ -17671,7 +19206,7 @@
         <v>0.6260349999999999</v>
       </c>
       <c r="F33" s="6">
-        <f>5-D33</f>
+        <f t="shared" si="1"/>
         <v>5.9197271000000002</v>
       </c>
     </row>
@@ -17693,7 +19228,7 @@
         <v>0.62691400000000019</v>
       </c>
       <c r="F34" s="6">
-        <f>5-D34</f>
+        <f t="shared" si="1"/>
         <v>5.8204551000000002</v>
       </c>
     </row>
@@ -17715,7 +19250,7 @@
         <v>0.62777200000000022</v>
       </c>
       <c r="F35" s="6">
-        <f>5-D35</f>
+        <f t="shared" si="1"/>
         <v>5.7213180000000001</v>
       </c>
     </row>
@@ -17737,7 +19272,7 @@
         <v>0.62861000000000011</v>
       </c>
       <c r="F36" s="6">
-        <f>5-D36</f>
+        <f t="shared" ref="F36:F67" si="2">5-D36</f>
         <v>5.6223155</v>
       </c>
     </row>
@@ -17759,7 +19294,7 @@
         <v>0.62942799999999988</v>
       </c>
       <c r="F37" s="6">
-        <f>5-D37</f>
+        <f t="shared" si="2"/>
         <v>5.5234475999999999</v>
       </c>
     </row>
@@ -17781,7 +19316,7 @@
         <v>0.63022899999999993</v>
       </c>
       <c r="F38" s="6">
-        <f>5-D38</f>
+        <f t="shared" si="2"/>
         <v>5.4247139000000004</v>
       </c>
     </row>
@@ -17803,7 +19338,7 @@
         <v>0.63101099999999999</v>
       </c>
       <c r="F39" s="6">
-        <f>5-D39</f>
+        <f t="shared" si="2"/>
         <v>5.3261143999999998</v>
       </c>
     </row>
@@ -17825,7 +19360,7 @@
         <v>0.63177799999999973</v>
       </c>
       <c r="F40" s="6">
-        <f>5-D40</f>
+        <f t="shared" si="2"/>
         <v>5.2276489999999995</v>
       </c>
     </row>
@@ -17847,7 +19382,7 @@
         <v>0.63252799999999976</v>
       </c>
       <c r="F41" s="6">
-        <f>5-D41</f>
+        <f t="shared" si="2"/>
         <v>5.1293172</v>
       </c>
     </row>
@@ -17869,7 +19404,7 @@
         <v>0.63326300000000035</v>
       </c>
       <c r="F42" s="6">
-        <f>5-D42</f>
+        <f t="shared" si="2"/>
         <v>5.0311190899999998</v>
       </c>
     </row>
@@ -17891,7 +19426,7 @@
         <v>0.63398299999999974</v>
       </c>
       <c r="F43" s="6">
-        <f>5-D43</f>
+        <f t="shared" si="2"/>
         <v>4.93305434</v>
       </c>
     </row>
@@ -17913,7 +19448,7 @@
         <v>0.63468899999999984</v>
       </c>
       <c r="F44" s="6">
-        <f>5-D44</f>
+        <f t="shared" si="2"/>
         <v>4.8351227999999997</v>
       </c>
     </row>
@@ -17935,7 +19470,7 @@
         <v>0.63538099999999975</v>
       </c>
       <c r="F45" s="6">
-        <f>5-D45</f>
+        <f t="shared" si="2"/>
         <v>4.7373241999999998</v>
       </c>
     </row>
@@ -17957,7 +19492,7 @@
         <v>0.63605999999999963</v>
       </c>
       <c r="F46" s="6">
-        <f>5-D46</f>
+        <f t="shared" si="2"/>
         <v>4.6396585000000004</v>
       </c>
     </row>
@@ -17979,7 +19514,7 @@
         <v>0.6367269999999996</v>
       </c>
       <c r="F47" s="6">
-        <f>5-D47</f>
+        <f t="shared" si="2"/>
         <v>4.5421253000000004</v>
       </c>
     </row>
@@ -18001,7 +19536,7 @@
         <v>0.63738199999999967</v>
       </c>
       <c r="F48" s="6">
-        <f>5-D48</f>
+        <f t="shared" si="2"/>
         <v>4.4447244999999995</v>
       </c>
     </row>
@@ -18023,7 +19558,7 @@
         <v>0.63802499999999984</v>
       </c>
       <c r="F49" s="6">
-        <f>5-D49</f>
+        <f t="shared" si="2"/>
         <v>4.3474558999999999</v>
       </c>
     </row>
@@ -18045,7 +19580,7 @@
         <v>0.63865600000000011</v>
       </c>
       <c r="F50" s="6">
-        <f>5-D50</f>
+        <f t="shared" si="2"/>
         <v>4.2503191999999999</v>
       </c>
     </row>
@@ -18067,7 +19602,7 @@
         <v>0.63927699999999987</v>
       </c>
       <c r="F51" s="6">
-        <f>5-D51</f>
+        <f t="shared" si="2"/>
         <v>4.1533142999999999</v>
       </c>
     </row>
@@ -18089,7 +19624,7 @@
         <v>0.63988699999999987</v>
       </c>
       <c r="F52" s="6">
-        <f>5-D52</f>
+        <f t="shared" si="2"/>
         <v>4.0564409000000001</v>
       </c>
     </row>
@@ -18111,7 +19646,7 @@
         <v>0.64048700000000025</v>
       </c>
       <c r="F53" s="6">
-        <f>5-D53</f>
+        <f t="shared" si="2"/>
         <v>3.9596990000000001</v>
       </c>
     </row>
@@ -18133,7 +19668,7 @@
         <v>0.64107800000000026</v>
       </c>
       <c r="F54" s="6">
-        <f>5-D54</f>
+        <f t="shared" si="2"/>
         <v>3.8630880000000003</v>
       </c>
     </row>
@@ -18155,7 +19690,7 @@
         <v>0.64165799999999962</v>
       </c>
       <c r="F55" s="6">
-        <f>5-D55</f>
+        <f t="shared" si="2"/>
         <v>3.7666079999999997</v>
       </c>
     </row>
@@ -18177,7 +19712,7 @@
         <v>0.64222999999999963</v>
       </c>
       <c r="F56" s="6">
-        <f>5-D56</f>
+        <f t="shared" si="2"/>
         <v>3.6702589999999997</v>
       </c>
     </row>
@@ -18199,7 +19734,7 @@
         <v>0.64279300000000017</v>
       </c>
       <c r="F57" s="6">
-        <f>5-D57</f>
+        <f t="shared" si="2"/>
         <v>3.5740400000000001</v>
       </c>
     </row>
@@ -18221,7 +19756,7 @@
         <v>0.64334700000000034</v>
       </c>
       <c r="F58" s="6">
-        <f>5-D58</f>
+        <f t="shared" si="2"/>
         <v>3.477951</v>
       </c>
     </row>
@@ -18243,7 +19778,7 @@
         <v>0.64389200000000013</v>
       </c>
       <c r="F59" s="6">
-        <f>5-D59</f>
+        <f t="shared" si="2"/>
         <v>3.3819920000000003</v>
       </c>
     </row>
@@ -18265,7 +19800,7 @@
         <v>0.64442999999999984</v>
       </c>
       <c r="F60" s="6">
-        <f>5-D60</f>
+        <f t="shared" si="2"/>
         <v>3.2861640000000003</v>
       </c>
     </row>
@@ -18287,7 +19822,7 @@
         <v>0.6449600000000002</v>
       </c>
       <c r="F61" s="6">
-        <f>5-D61</f>
+        <f t="shared" si="2"/>
         <v>3.190464</v>
       </c>
     </row>
@@ -18309,7 +19844,7 @@
         <v>0.64548200000000033</v>
       </c>
       <c r="F62" s="6">
-        <f>5-D62</f>
+        <f t="shared" si="2"/>
         <v>3.094894</v>
       </c>
     </row>
@@ -18331,7 +19866,7 @@
         <v>0.64599700000000038</v>
       </c>
       <c r="F63" s="6">
-        <f>5-D63</f>
+        <f t="shared" si="2"/>
         <v>2.9994540000000001</v>
       </c>
     </row>
@@ -18353,7 +19888,7 @@
         <v>0.64650400000000019</v>
       </c>
       <c r="F64" s="6">
-        <f>5-D64</f>
+        <f t="shared" si="2"/>
         <v>2.9041419999999998</v>
       </c>
     </row>
@@ -18375,7 +19910,7 @@
         <v>0.64700399999999991</v>
       </c>
       <c r="F65" s="6">
-        <f>5-D65</f>
+        <f t="shared" si="2"/>
         <v>2.8089590000000002</v>
       </c>
     </row>
@@ -18397,7 +19932,7 @@
         <v>0.64749799999999968</v>
       </c>
       <c r="F66" s="6">
-        <f>5-D66</f>
+        <f t="shared" si="2"/>
         <v>2.7139039999999999</v>
       </c>
     </row>
@@ -18419,7 +19954,7 @@
         <v>0.64798500000000026</v>
       </c>
       <c r="F67" s="6">
-        <f>5-D67</f>
+        <f t="shared" si="2"/>
         <v>2.6189779999999998</v>
       </c>
     </row>
@@ -18437,11 +19972,11 @@
         <v>2.4758209999999998</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" ref="E68:E93" si="1">5-C68</f>
+        <f t="shared" ref="E68:E93" si="3">5-C68</f>
         <v>0.64846499999999985</v>
       </c>
       <c r="F68" s="6">
-        <f>5-D68</f>
+        <f t="shared" ref="F68:F93" si="4">5-D68</f>
         <v>2.5241790000000002</v>
       </c>
     </row>
@@ -18459,11 +19994,11 @@
         <v>2.5704920000000002</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64893999999999963</v>
       </c>
       <c r="F69" s="6">
-        <f>5-D69</f>
+        <f t="shared" si="4"/>
         <v>2.4295079999999998</v>
       </c>
     </row>
@@ -18481,11 +20016,11 @@
         <v>2.665035</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64940700000000007</v>
       </c>
       <c r="F70" s="6">
-        <f>5-D70</f>
+        <f t="shared" si="4"/>
         <v>2.334965</v>
       </c>
     </row>
@@ -18503,11 +20038,11 @@
         <v>2.7594500000000002</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64986999999999995</v>
       </c>
       <c r="F71" s="6">
-        <f>5-D71</f>
+        <f t="shared" si="4"/>
         <v>2.2405499999999998</v>
       </c>
     </row>
@@ -18525,11 +20060,11 @@
         <v>2.853739</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65032599999999974</v>
       </c>
       <c r="F72" s="6">
-        <f>5-D72</f>
+        <f t="shared" si="4"/>
         <v>2.146261</v>
       </c>
     </row>
@@ -18547,11 +20082,11 @@
         <v>2.9479009999999999</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65077699999999972</v>
       </c>
       <c r="F73" s="6">
-        <f>5-D73</f>
+        <f t="shared" si="4"/>
         <v>2.0520990000000001</v>
       </c>
     </row>
@@ -18569,11 +20104,11 @@
         <v>3.0419360000000002</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65122199999999975</v>
       </c>
       <c r="F74" s="6">
-        <f>5-D74</f>
+        <f t="shared" si="4"/>
         <v>1.9580639999999998</v>
       </c>
     </row>
@@ -18591,11 +20126,11 @@
         <v>3.1358450000000002</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65166199999999996</v>
       </c>
       <c r="F75" s="6">
-        <f>5-D75</f>
+        <f t="shared" si="4"/>
         <v>1.8641549999999998</v>
       </c>
     </row>
@@ -18613,11 +20148,11 @@
         <v>3.2296269999999998</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65209600000000023</v>
       </c>
       <c r="F76" s="6">
-        <f>5-D76</f>
+        <f t="shared" si="4"/>
         <v>1.7703730000000002</v>
       </c>
     </row>
@@ -18635,11 +20170,11 @@
         <v>3.323283</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6525249999999998</v>
       </c>
       <c r="F77" s="6">
-        <f>5-D77</f>
+        <f t="shared" si="4"/>
         <v>1.676717</v>
       </c>
     </row>
@@ -18657,11 +20192,11 @@
         <v>3.416814</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6529499999999997</v>
       </c>
       <c r="F78" s="6">
-        <f>5-D78</f>
+        <f t="shared" si="4"/>
         <v>1.583186</v>
       </c>
       <c r="K78" s="46"/>
@@ -18680,11 +20215,11 @@
         <v>3.5102190000000002</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65336899999999964</v>
       </c>
       <c r="F79" s="6">
-        <f>5-D79</f>
+        <f t="shared" si="4"/>
         <v>1.4897809999999998</v>
       </c>
       <c r="K79" s="46"/>
@@ -18703,11 +20238,11 @@
         <v>3.6034989999999998</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65378399999999992</v>
       </c>
       <c r="F80" s="6">
-        <f>5-D80</f>
+        <f t="shared" si="4"/>
         <v>1.3965010000000002</v>
       </c>
       <c r="K80" s="46"/>
@@ -18726,11 +20261,11 @@
         <v>3.6966540000000001</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65419400000000039</v>
       </c>
       <c r="F81" s="6">
-        <f>5-D81</f>
+        <f t="shared" si="4"/>
         <v>1.3033459999999999</v>
       </c>
       <c r="K81" s="46"/>
@@ -18749,11 +20284,11 @@
         <v>3.7896839999999998</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65460000000000029</v>
       </c>
       <c r="F82" s="6">
-        <f>5-D82</f>
+        <f t="shared" si="4"/>
         <v>1.2103160000000002</v>
       </c>
       <c r="K82" s="46"/>
@@ -18772,11 +20307,11 @@
         <v>3.8825889999999998</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65500100000000039</v>
       </c>
       <c r="F83" s="6">
-        <f>5-D83</f>
+        <f t="shared" si="4"/>
         <v>1.1174110000000002</v>
       </c>
       <c r="K83" s="46"/>
@@ -18795,11 +20330,11 @@
         <v>3.9753699999999998</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65539699999999979</v>
       </c>
       <c r="F84" s="6">
-        <f>5-D84</f>
+        <f t="shared" si="4"/>
         <v>1.0246300000000002</v>
       </c>
       <c r="K84" s="46"/>
@@ -18818,11 +20353,11 @@
         <v>4.0680269999999998</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6557890000000004</v>
       </c>
       <c r="F85" s="6">
-        <f>5-D85</f>
+        <f t="shared" si="4"/>
         <v>0.93197300000000016</v>
       </c>
       <c r="K85" s="46"/>
@@ -18841,11 +20376,11 @@
         <v>4.1605590000000001</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65617799999999971</v>
       </c>
       <c r="F86" s="6">
-        <f>5-D86</f>
+        <f t="shared" si="4"/>
         <v>0.83944099999999988</v>
       </c>
       <c r="K86" s="46"/>
@@ -18864,11 +20399,11 @@
         <v>4.2529659999999998</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65656200000000009</v>
       </c>
       <c r="F87" s="6">
-        <f>5-D87</f>
+        <f t="shared" si="4"/>
         <v>0.7470340000000002</v>
       </c>
       <c r="K87" s="46"/>
@@ -18887,11 +20422,11 @@
         <v>4.345237</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65694199999999991</v>
       </c>
       <c r="F88" s="6">
-        <f>5-D88</f>
+        <f t="shared" si="4"/>
         <v>0.65476299999999998</v>
       </c>
       <c r="K88" s="46"/>
@@ -18910,11 +20445,11 @@
         <v>4.4373069999999997</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65731800000000007</v>
       </c>
       <c r="F89" s="6">
-        <f>5-D89</f>
+        <f t="shared" si="4"/>
         <v>0.56269300000000033</v>
       </c>
       <c r="K89" s="46"/>
@@ -18933,11 +20468,11 @@
         <v>4.5287579999999998</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65768900000000041</v>
       </c>
       <c r="F90" s="6">
-        <f>5-D90</f>
+        <f t="shared" si="4"/>
         <v>0.47124200000000016</v>
       </c>
       <c r="K90" s="46"/>
@@ -18956,11 +20491,11 @@
         <v>4.6171699999999998</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65805100000000039</v>
       </c>
       <c r="F91" s="6">
-        <f>5-D91</f>
+        <f t="shared" si="4"/>
         <v>0.38283000000000023</v>
       </c>
       <c r="K91" s="46"/>
@@ -18979,11 +20514,11 @@
         <v>4.6937470000000001</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65838999999999981</v>
       </c>
       <c r="F92" s="6">
-        <f>5-D92</f>
+        <f t="shared" si="4"/>
         <v>0.30625299999999989</v>
       </c>
       <c r="K92" s="46"/>
@@ -19002,11 +20537,11 @@
         <v>4.7460740000000001</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65868500000000019</v>
       </c>
       <c r="F93" s="6">
-        <f>5-D93</f>
+        <f t="shared" si="4"/>
         <v>0.25392599999999987</v>
       </c>
       <c r="K93" s="46"/>
@@ -21536,8 +23071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21602,11 +23137,11 @@
       <c r="C3" s="20">
         <v>1.0482455313505599E-6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="54">
         <f>ABS(B3)/0.000001</f>
         <v>389.12244523562401</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="56">
         <f>ABS(C3)/0.000001</f>
         <v>1.0482455313505599</v>
       </c>
@@ -21850,8 +23385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="149" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21931,7 +23466,7 @@
         <f>ABS(C3)/0.000001</f>
         <v>1.0063225523509601E-4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="55">
         <f>1/(E3-1/10000)</f>
         <v>1581639.7310623464</v>
       </c>
@@ -22217,13 +23752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="37" bestFit="1" customWidth="1"/>
@@ -22235,7 +23771,7 @@
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -22255,7 +23791,7 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -22278,7 +23814,7 @@
       <c r="A3" s="20">
         <v>100</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="57">
         <v>16.094227531497602</v>
       </c>
       <c r="C3" s="20">
@@ -22300,7 +23836,7 @@
       <c r="A4" s="20">
         <v>102.305972984251</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="58">
         <v>16.094210974749501</v>
       </c>
       <c r="C4" s="20">
@@ -22315,7 +23851,7 @@
       <c r="A5" s="20">
         <v>104.665121082543</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="58">
         <v>16.094193645676501</v>
       </c>
       <c r="C5" s="20">
@@ -22330,7 +23866,7 @@
       <c r="A6" s="20">
         <v>107.07867049863999</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="58">
         <v>16.094175507593501</v>
       </c>
       <c r="C6" s="20">
@@ -22345,7 +23881,7 @@
       <c r="A7" s="20">
         <v>109.54787571223299</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="58">
         <v>16.0941565241212</v>
       </c>
       <c r="C7" s="20">
@@ -22360,7 +23896,7 @@
       <c r="A8" s="20">
         <v>112.074020130978</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="58">
         <v>16.094136655135401</v>
       </c>
       <c r="C8" s="20">
@@ -22375,7 +23911,7 @@
       <c r="A9" s="20">
         <v>114.65841675756199</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="58">
         <v>16.094115859334799</v>
       </c>
       <c r="C9" s="20">
@@ -22390,7 +23926,7 @@
       <c r="A10" s="20">
         <v>117.302408872161</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="58">
         <v>16.094094093491599</v>
       </c>
       <c r="C10" s="20">
@@ -22405,7 +23941,7 @@
       <c r="A11" s="20">
         <v>120.00737073062901</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="58">
         <v>16.094071312362399</v>
       </c>
       <c r="C11" s="20">
@@ -22420,7 +23956,7 @@
       <c r="A12" s="20">
         <v>122.774708278787</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="58">
         <v>16.094047468593601</v>
       </c>
       <c r="C12" s="20">
@@ -22435,7 +23971,7 @@
       <c r="A13" s="20">
         <v>125.605859883189</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="58">
         <v>16.094022512624601</v>
       </c>
       <c r="C13" s="20">
@@ -22450,7 +23986,7 @@
       <c r="A14" s="20">
         <v>128.502297078731</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="58">
         <v>16.0939963925832</v>
       </c>
       <c r="C14" s="20">
@@ -22465,7 +24001,7 @@
       <c r="A15" s="20">
         <v>131.465525333508</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="58">
         <v>16.093969054178</v>
       </c>
       <c r="C15" s="20">
@@ -22480,7 +24016,7 @@
       <c r="A16" s="20">
         <v>134.497084831302</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="58">
         <v>16.093940440587499</v>
       </c>
       <c r="C16" s="20">
@@ -22495,7 +24031,7 @@
       <c r="A17" s="20">
         <v>137.59855127211699</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="58">
         <v>16.093910492340701</v>
       </c>
       <c r="C17" s="20">
@@ -22510,7 +24046,7 @@
       <c r="A18" s="20">
         <v>140.771536691173</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="58">
         <v>16.093879147193</v>
       </c>
       <c r="C18" s="20">
@@ -22525,7 +24061,7 @@
       <c r="A19" s="20">
         <v>144.01769029678599</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="58">
         <v>16.0938463399984</v>
       </c>
       <c r="C19" s="20">
@@ -22540,7 +24076,7 @@
       <c r="A20" s="20">
         <v>147.33869932757199</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="58">
         <v>16.093812002573699</v>
       </c>
       <c r="C20" s="20">
@@ -22555,7 +24091,7 @@
       <c r="A21" s="20">
         <v>150.73628992941201</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="58">
         <v>16.093776063557499</v>
       </c>
       <c r="C21" s="20">
@@ -22570,7 +24106,7 @@
       <c r="A22" s="20">
         <v>154.21222805264699</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="58">
         <v>16.093738447930502</v>
       </c>
       <c r="C22" s="20">
@@ -22585,7 +24121,7 @@
       <c r="A23" s="20">
         <v>157.76832036995199</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="58">
         <v>16.093699078183899</v>
       </c>
       <c r="C23" s="20">
@@ -22600,7 +24136,7 @@
       <c r="A24" s="20">
         <v>161.40641521538899</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="58">
         <v>16.093657872173399</v>
       </c>
       <c r="C24" s="20">
@@ -22615,7 +24151,7 @@
       <c r="A25" s="20">
         <v>165.12840354510399</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="58">
         <v>16.093614744271498</v>
       </c>
       <c r="C25" s="20">
@@ -22630,7 +24166,7 @@
       <c r="A26" s="20">
         <v>168.93621992017901</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="58">
         <v>16.093569604859301</v>
       </c>
       <c r="C26" s="20">
@@ -22645,7 +24181,7 @@
       <c r="A27" s="20">
         <v>172.831843512153</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="58">
         <v>16.093522360141201</v>
       </c>
       <c r="C27" s="20">
@@ -22660,7 +24196,7 @@
       <c r="A28" s="20">
         <v>176.817299131726</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="58">
         <v>16.093472911950499</v>
       </c>
       <c r="C28" s="20">
@@ -22675,7 +24211,7 @@
       <c r="A29" s="20">
         <v>180.894658281185</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="58">
         <v>16.0934211575447</v>
       </c>
       <c r="C29" s="20">
@@ -22690,7 +24226,7 @@
       <c r="A30" s="20">
         <v>185.06604023110299</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="58">
         <v>16.093366989063199</v>
       </c>
       <c r="C30" s="20">
@@ -22705,7 +24241,7 @@
       <c r="A31" s="20">
         <v>189.333613121855</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="58">
         <v>16.0933102946261</v>
       </c>
       <c r="C31" s="20">
@@ -22720,7 +24256,7 @@
       <c r="A32" s="20">
         <v>193.69959509055099</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="58">
         <v>16.0932509561176</v>
       </c>
       <c r="C32" s="20">
@@ -22735,7 +24271,7 @@
       <c r="A33" s="20">
         <v>198.166255423942</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="58">
         <v>16.093188850264301</v>
       </c>
       <c r="C33" s="20">
@@ -22750,7 +24286,7 @@
       <c r="A34" s="20">
         <v>202.73591573792001</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="58">
         <v>16.093123848048901</v>
       </c>
       <c r="C34" s="20">
@@ -22765,7 +24301,7 @@
       <c r="A35" s="20">
         <v>207.41095118421001</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="58">
         <v>16.093055814443399</v>
       </c>
       <c r="C35" s="20">
@@ -22780,7 +24316,7 @@
       <c r="A36" s="20">
         <v>212.19379168489499</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="58">
         <v>16.092984608129399</v>
       </c>
       <c r="C36" s="20">
@@ -22795,7 +24331,7 @@
       <c r="A37" s="20">
         <v>217.086923195407</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="58">
         <v>16.092910081205002</v>
       </c>
       <c r="C37" s="20">
@@ -22810,7 +24346,7 @@
       <c r="A38" s="20">
         <v>222.092888996634</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="58">
         <v>16.0928320788794</v>
       </c>
       <c r="C38" s="20">
@@ -22825,7 +24361,7 @@
       <c r="A39" s="20">
         <v>227.21429101683901</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="58">
         <v>16.092750439151001</v>
       </c>
       <c r="C39" s="20">
@@ -22840,7 +24376,7 @@
       <c r="A40" s="20">
         <v>232.45379118404401</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="58">
         <v>16.092664992474401</v>
       </c>
       <c r="C40" s="20">
@@ -22855,7 +24391,7 @@
       <c r="A41" s="20">
         <v>237.81411280961501</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="58">
         <v>16.0925755607458</v>
       </c>
       <c r="C41" s="20">
@@ -22870,7 +24406,7 @@
       <c r="A42" s="20">
         <v>243.29804200374099</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="58">
         <v>16.092481959583399</v>
       </c>
       <c r="C42" s="20">
@@ -22885,7 +24421,7 @@
       <c r="A43" s="20">
         <v>248.90842912355799</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="58">
         <v>16.092383993974199</v>
       </c>
       <c r="C43" s="20">
@@ -22900,7 +24436,7 @@
       <c r="A44" s="20">
         <v>254.64819025467099</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="58">
         <v>16.0922814605177</v>
       </c>
       <c r="C44" s="20">
@@ -22915,7 +24451,7 @@
       <c r="A45" s="20">
         <v>260.52030872682701</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="58">
         <v>16.092174146344</v>
       </c>
       <c r="C45" s="20">
@@ -22930,7 +24466,7 @@
       <c r="A46" s="20">
         <v>266.52783666455502</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="58">
         <v>16.0920618286743</v>
       </c>
       <c r="C46" s="20">
@@ -22945,7 +24481,7 @@
       <c r="A47" s="20">
         <v>272.67389657354801</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="58">
         <v>16.091944274360401</v>
       </c>
       <c r="C47" s="20">
@@ -22960,7 +24496,7 @@
       <c r="A48" s="20">
         <v>278.961682963638</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="58">
         <v>16.091821239403298</v>
       </c>
       <c r="C48" s="20">
@@ -22975,7 +24511,7 @@
       <c r="A49" s="20">
         <v>285.39446400919098</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="58">
         <v>16.091692467788299</v>
       </c>
       <c r="C49" s="20">
@@ -22990,7 +24526,7 @@
       <c r="A50" s="20">
         <v>291.97558324778998</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="58">
         <v>16.0915576936032</v>
       </c>
       <c r="C50" s="20">
@@ -23008,7 +24544,7 @@
       <c r="A51" s="20">
         <v>298.70846131809299</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="58">
         <v>16.091416636518598</v>
       </c>
       <c r="C51" s="20">
@@ -23023,7 +24559,7 @@
       <c r="A52" s="20">
         <v>305.59659773776002</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="58">
         <v>16.091269003856901</v>
       </c>
       <c r="C52" s="20">
@@ -23038,7 +24574,7 @@
       <c r="A53" s="20">
         <v>312.64357272238198</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="58">
         <v>16.091114489328199</v>
       </c>
       <c r="C53" s="20">
@@ -23053,7 +24589,7 @@
       <c r="A54" s="20">
         <v>319.853049046357</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="58">
         <v>16.0909527720667</v>
       </c>
       <c r="C54" s="20">
@@ -23068,7 +24604,7 @@
       <c r="A55" s="20">
         <v>327.22877394666898</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="58">
         <v>16.090783517294501</v>
       </c>
       <c r="C55" s="20">
@@ -23083,7 +24619,7 @@
       <c r="A56" s="20">
         <v>334.77458107057402</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="58">
         <v>16.090606373647201</v>
       </c>
       <c r="C56" s="20">
@@ -23098,7 +24634,7 @@
       <c r="A57" s="20">
         <v>342.494392468201</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="58">
         <v>16.090420973773</v>
       </c>
       <c r="C57" s="20">
@@ -23113,7 +24649,7 @@
       <c r="A58" s="20">
         <v>350.39222063109099</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="58">
         <v>16.090226932916</v>
       </c>
       <c r="C58" s="20">
@@ -23128,7 +24664,7 @@
       <c r="A59" s="20">
         <v>358.47217057776101</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="58">
         <v>16.0900238494497</v>
       </c>
       <c r="C59" s="20">
@@ -23143,7 +24679,7 @@
       <c r="A60" s="20">
         <v>366.73844198734201</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="58">
         <v>16.0898113020646</v>
       </c>
       <c r="C60" s="20">
@@ -23158,7 +24694,7 @@
       <c r="A61" s="20">
         <v>375.19533138243298</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="58">
         <v>16.089588849235799</v>
       </c>
       <c r="C61" s="20">
@@ -23173,7 +24709,7 @@
       <c r="A62" s="20">
         <v>383.84723436228199</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="58">
         <v>16.089356031624199</v>
       </c>
       <c r="C62" s="20">
@@ -23188,7 +24724,7 @@
       <c r="A63" s="20">
         <v>392.69864788746997</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="58">
         <v>16.0891123665028</v>
       </c>
       <c r="C63" s="20">
@@ -23203,7 +24739,7 @@
       <c r="A64" s="20">
         <v>401.75417261727398</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="58">
         <v>16.088857348749801</v>
       </c>
       <c r="C64" s="20">
@@ -23218,7 +24754,7 @@
       <c r="A65" s="20">
         <v>411.01851530092898</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="58">
         <v>16.0885904501475</v>
       </c>
       <c r="C65" s="20">
@@ -23233,7 +24769,7 @@
       <c r="A66" s="20">
         <v>420.49649122403702</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="58">
         <v>16.088311117968999</v>
       </c>
       <c r="C66" s="20">
@@ -23248,7 +24784,7 @@
       <c r="A67" s="20">
         <v>430.19302671138598</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="58">
         <v>16.0880187738478</v>
       </c>
       <c r="C67" s="20">
@@ -23263,7 +24799,7 @@
       <c r="A68" s="20">
         <v>440.11316168748198</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="58">
         <v>16.087712812265199</v>
       </c>
       <c r="C68" s="20">
@@ -23278,7 +24814,7 @@
       <c r="A69" s="20">
         <v>450.26205229612702</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="58">
         <v>16.0873925999745</v>
       </c>
       <c r="C69" s="20">
@@ -23293,7 +24829,7 @@
       <c r="A70" s="20">
         <v>460.64497358041001</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="58">
         <v>16.087057474709599</v>
       </c>
       <c r="C70" s="20">
@@ -23308,7 +24844,7 @@
       <c r="A71" s="20">
         <v>471.267322224483</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="58">
         <v>16.086706743832</v>
       </c>
       <c r="C71" s="20">
@@ -23323,7 +24859,7 @@
       <c r="A72" s="20">
         <v>482.13461935858197</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="58">
         <v>16.086339681269301</v>
       </c>
       <c r="C72" s="20">
@@ -23338,7 +24874,7 @@
       <c r="A73" s="20">
         <v>493.25251342871201</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="58">
         <v>16.085955528019301</v>
       </c>
       <c r="C73" s="20">
@@ -23353,7 +24889,7 @@
       <c r="A74" s="20">
         <v>504.62678313251598</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="58">
         <v>16.085553489287001</v>
       </c>
       <c r="C74" s="20">
@@ -23368,7 +24904,7 @@
       <c r="A75" s="20">
         <v>516.263340422846</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="58">
         <v>16.085132734850099</v>
       </c>
       <c r="C75" s="20">
@@ -23383,7 +24919,7 @@
       <c r="A76" s="20">
         <v>528.16823358058798</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="58">
         <v>16.084692395726201</v>
       </c>
       <c r="C76" s="20">
@@ -23398,7 +24934,7 @@
       <c r="A77" s="20">
         <v>540.34765035835198</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="58">
         <v>16.084231562409201</v>
       </c>
       <c r="C77" s="20">
@@ -23413,7 +24949,7 @@
       <c r="A78" s="20">
         <v>552.80792119664898</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="58">
         <v>16.083749282698701</v>
       </c>
       <c r="C78" s="20">
@@ -23428,7 +24964,7 @@
       <c r="A79" s="20">
         <v>565.55552251424297</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="58">
         <v>16.083244561426898</v>
       </c>
       <c r="C79" s="20">
@@ -23443,7 +24979,7 @@
       <c r="A80" s="20">
         <v>578.59708007435995</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="58">
         <v>16.082716356800098</v>
       </c>
       <c r="C80" s="20">
@@ -23458,7 +24994,7 @@
       <c r="A81" s="20">
         <v>591.93937242853895</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="58">
         <v>16.0821635802779</v>
       </c>
       <c r="C81" s="20">
@@ -23473,7 +25009,7 @@
       <c r="A82" s="20">
         <v>605.58933443988599</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="58">
         <v>16.081585090749599</v>
       </c>
       <c r="C82" s="20">
@@ -23488,7 +25024,7 @@
       <c r="A83" s="20">
         <v>619.554060887574</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="58">
         <v>16.0809796968658</v>
       </c>
       <c r="C83" s="20">
@@ -23503,7 +25039,7 @@
       <c r="A84" s="20">
         <v>633.84081015446998</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="58">
         <v>16.080346151013899</v>
       </c>
       <c r="C84" s="20">
@@ -23518,7 +25054,7 @@
       <c r="A85" s="20">
         <v>648.45700799978897</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="58">
         <v>16.0796831481405</v>
       </c>
       <c r="C85" s="20">
@@ -23533,7 +25069,7 @@
       <c r="A86" s="20">
         <v>663.41025141874604</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="58">
         <v>16.078989323802301</v>
       </c>
       <c r="C86" s="20">
@@ -23548,7 +25084,7 @@
       <c r="A87" s="20">
         <v>678.70831259121303</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="58">
         <v>16.0782632507822</v>
       </c>
       <c r="C87" s="20">
@@ -23563,7 +25099,7 @@
       <c r="A88" s="20">
         <v>694.35914292143104</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="58">
         <v>16.077503435253799</v>
       </c>
       <c r="C88" s="20">
@@ -23578,7 +25114,7 @@
       <c r="A89" s="20">
         <v>710.37087717087502</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="58">
         <v>16.0767083157954</v>
       </c>
       <c r="C89" s="20">
@@ -23593,7 +25129,7 @@
       <c r="A90" s="20">
         <v>726.75183768642103</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="58">
         <v>16.075876259300799</v>
       </c>
       <c r="C90" s="20">
@@ -23608,7 +25144,7 @@
       <c r="A91" s="20">
         <v>743.51053872601699</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="58">
         <v>16.075005556097899</v>
       </c>
       <c r="C91" s="20">
@@ -23623,7 +25159,7 @@
       <c r="A92" s="20">
         <v>760.655690884097</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="58">
         <v>16.074094421845601</v>
       </c>
       <c r="C92" s="20">
@@ -23638,7 +25174,7 @@
       <c r="A93" s="20">
         <v>778.19620561905106</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="58">
         <v>16.0731409854525</v>
       </c>
       <c r="C93" s="20">
@@ -23653,7 +25189,7 @@
       <c r="A94" s="20">
         <v>796.14119988509105</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="58">
         <v>16.072143294955399</v>
       </c>
       <c r="C94" s="20">
@@ -23668,7 +25204,7 @@
       <c r="A95" s="20">
         <v>814.50000087093201</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="58">
         <v>16.0710993064463</v>
       </c>
       <c r="C95" s="20">
@@ -23683,7 +25219,7 @@
       <c r="A96" s="20">
         <v>833.28215084773899</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="58">
         <v>16.070006883368499</v>
       </c>
       <c r="C96" s="20">
@@ -23698,7 +25234,7 @@
       <c r="A97" s="20">
         <v>852.49741212887204</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="58">
         <v>16.068863791043398</v>
       </c>
       <c r="C97" s="20">
@@ -23713,7 +25249,7 @@
       <c r="A98" s="20">
         <v>872.15577214400196</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="58">
         <v>16.067667695618599</v>
       </c>
       <c r="C98" s="20">
@@ -23728,7 +25264,7 @@
       <c r="A99" s="20">
         <v>892.26744863022702</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="58">
         <v>16.066416152305401</v>
       </c>
       <c r="C99" s="20">
@@ -23743,7 +25279,7 @@
       <c r="A100" s="20">
         <v>912.84289494290397</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="58">
         <v>16.065106609227598</v>
       </c>
       <c r="C100" s="20">
@@ -23758,7 +25294,7 @@
       <c r="A101" s="20">
         <v>933.89280548894101</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="58">
         <v>16.063736398226499</v>
       </c>
       <c r="C101" s="20">
@@ -23773,7 +25309,7 @@
       <c r="A102" s="20">
         <v>955.42812128537901</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="58">
         <v>16.062302727129801</v>
       </c>
       <c r="C102" s="20">
@@ -23788,7 +25324,7 @@
       <c r="A103" s="20">
         <v>977.46003564615501</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="58">
         <v>16.060802680011101</v>
       </c>
       <c r="C103" s="20">
@@ -23803,7 +25339,7 @@
       <c r="A104" s="20">
         <v>1000</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="58">
         <v>16.059233210003001</v>
       </c>
       <c r="C104" s="20">
@@ -23818,7 +25354,7 @@
       <c r="A105" s="20">
         <v>1023.05972984251</v>
       </c>
-      <c r="B105" s="20">
+      <c r="B105" s="58">
         <v>16.057591128283502</v>
       </c>
       <c r="C105" s="20">
@@ -23833,7 +25369,7 @@
       <c r="A106" s="20">
         <v>1046.6512108254301</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="58">
         <v>16.055873106607699</v>
       </c>
       <c r="C106" s="20">
@@ -23848,7 +25384,7 @@
       <c r="A107" s="20">
         <v>1070.7867049864001</v>
       </c>
-      <c r="B107" s="20">
+      <c r="B107" s="58">
         <v>16.054075664506101</v>
       </c>
       <c r="C107" s="20">
@@ -23863,7 +25399,7 @@
       <c r="A108" s="20">
         <v>1095.4787571223401</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="58">
         <v>16.052195166730399</v>
       </c>
       <c r="C108" s="20">
@@ -23878,7 +25414,7 @@
       <c r="A109" s="20">
         <v>1120.7402013097801</v>
       </c>
-      <c r="B109" s="20">
+      <c r="B109" s="58">
         <v>16.0502278125802</v>
       </c>
       <c r="C109" s="20">
@@ -23893,7 +25429,7 @@
       <c r="A110" s="20">
         <v>1146.5841675756301</v>
       </c>
-      <c r="B110" s="20">
+      <c r="B110" s="58">
         <v>16.048169633152199</v>
       </c>
       <c r="C110" s="20">
@@ -23908,7 +25444,7 @@
       <c r="A111" s="20">
         <v>1173.02408872162</v>
       </c>
-      <c r="B111" s="20">
+      <c r="B111" s="58">
         <v>16.0460164814438</v>
       </c>
       <c r="C111" s="20">
@@ -23923,7 +25459,7 @@
       <c r="A112" s="20">
         <v>1200.0737073062901</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="58">
         <v>16.043764025447199</v>
       </c>
       <c r="C112" s="20">
@@ -23938,7 +25474,7 @@
       <c r="A113" s="20">
         <v>1227.7470827878701</v>
       </c>
-      <c r="B113" s="20">
+      <c r="B113" s="58">
         <v>16.041407740307999</v>
       </c>
       <c r="C113" s="20">
@@ -23953,7 +25489,7 @@
       <c r="A114" s="20">
         <v>1256.0585988318901</v>
       </c>
-      <c r="B114" s="20">
+      <c r="B114" s="58">
         <v>16.038942900516101</v>
       </c>
       <c r="C114" s="20">
@@ -23968,7 +25504,7 @@
       <c r="A115" s="20">
         <v>1285.02297078731</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="58">
         <v>16.036364569175699</v>
       </c>
       <c r="C115" s="20">
@@ -23983,7 +25519,7 @@
       <c r="A116" s="20">
         <v>1314.65525333509</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="58">
         <v>16.033667595145602</v>
       </c>
       <c r="C116" s="20">
@@ -23998,7 +25534,7 @@
       <c r="A117" s="20">
         <v>1344.97084831303</v>
       </c>
-      <c r="B117" s="20">
+      <c r="B117" s="58">
         <v>16.030846596457799</v>
       </c>
       <c r="C117" s="20">
@@ -24013,7 +25549,7 @@
       <c r="A118" s="20">
         <v>1375.9855127211799</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="58">
         <v>16.0278959558417</v>
       </c>
       <c r="C118" s="20">
@@ -24028,7 +25564,7 @@
       <c r="A119" s="20">
         <v>1407.7153669117299</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="58">
         <v>16.024809810030298</v>
       </c>
       <c r="C119" s="20">
@@ -24043,7 +25579,7 @@
       <c r="A120" s="20">
         <v>1440.1769029678701</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="58">
         <v>16.021582039065699</v>
       </c>
       <c r="C120" s="20">
@@ -24058,7 +25594,7 @@
       <c r="A121" s="20">
         <v>1473.38699327573</v>
       </c>
-      <c r="B121" s="20">
+      <c r="B121" s="58">
         <v>16.018206255270702</v>
       </c>
       <c r="C121" s="20">
@@ -24073,7 +25609,7 @@
       <c r="A122" s="20">
         <v>1507.3628992941301</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="58">
         <v>16.0146757967564</v>
       </c>
       <c r="C122" s="20">
@@ -24088,7 +25624,7 @@
       <c r="A123" s="20">
         <v>1542.1222805264699</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="58">
         <v>16.010983708547698</v>
       </c>
       <c r="C123" s="20">
@@ -24103,7 +25639,7 @@
       <c r="A124" s="20">
         <v>1577.6832036995299</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="58">
         <v>16.0071227392997</v>
       </c>
       <c r="C124" s="20">
@@ -24118,7 +25654,7 @@
       <c r="A125" s="20">
         <v>1614.0641521539001</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="58">
         <v>16.003085323678398</v>
       </c>
       <c r="C125" s="20">
@@ -24133,7 +25669,7 @@
       <c r="A126" s="20">
         <v>1651.2840354510499</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B126" s="58">
         <v>15.998863574144799</v>
       </c>
       <c r="C126" s="20">
@@ -24148,7 +25684,7 @@
       <c r="A127" s="20">
         <v>1689.3621992018</v>
       </c>
-      <c r="B127" s="20">
+      <c r="B127" s="58">
         <v>15.994449265892399</v>
       </c>
       <c r="C127" s="20">
@@ -24163,7 +25699,7 @@
       <c r="A128" s="20">
         <v>1728.31843512154</v>
       </c>
-      <c r="B128" s="20">
+      <c r="B128" s="58">
         <v>15.9898338262973</v>
       </c>
       <c r="C128" s="20">
@@ -24178,7 +25714,7 @@
       <c r="A129" s="20">
         <v>1768.1729913172701</v>
       </c>
-      <c r="B129" s="20">
+      <c r="B129" s="58">
         <v>15.9850083182031</v>
       </c>
       <c r="C129" s="20">
@@ -24193,7 +25729,7 @@
       <c r="A130" s="20">
         <v>1808.94658281186</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B130" s="58">
         <v>15.979963429982799</v>
       </c>
       <c r="C130" s="20">
@@ -24208,7 +25744,7 @@
       <c r="A131" s="20">
         <v>1850.6604023110301</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="58">
         <v>15.974689461693901</v>
       </c>
       <c r="C131" s="20">
@@ -24223,7 +25759,7 @@
       <c r="A132" s="20">
         <v>1893.33613121855</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="58">
         <v>15.9691763073863</v>
       </c>
       <c r="C132" s="20">
@@ -24238,7 +25774,7 @@
       <c r="A133" s="20">
         <v>1936.99595090551</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="58">
         <v>15.963413443211399</v>
       </c>
       <c r="C133" s="20">
@@ -24253,7 +25789,7 @@
       <c r="A134" s="20">
         <v>1981.6625542394299</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="58">
         <v>15.9573899145774</v>
       </c>
       <c r="C134" s="20">
@@ -24268,7 +25804,7 @@
       <c r="A135" s="20">
         <v>2027.3591573792</v>
       </c>
-      <c r="B135" s="20">
+      <c r="B135" s="58">
         <v>15.9510943159707</v>
       </c>
       <c r="C135" s="20">
@@ -24283,7 +25819,7 @@
       <c r="A136" s="20">
         <v>2074.1095118420999</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="58">
         <v>15.94451478013</v>
       </c>
       <c r="C136" s="20">
@@ -24298,7 +25834,7 @@
       <c r="A137" s="20">
         <v>2121.93791684896</v>
       </c>
-      <c r="B137" s="20">
+      <c r="B137" s="58">
         <v>15.937638960892301</v>
       </c>
       <c r="C137" s="20">
@@ -24313,7 +25849,7 @@
       <c r="A138" s="20">
         <v>2170.8692319540701</v>
       </c>
-      <c r="B138" s="20">
+      <c r="B138" s="58">
         <v>15.9304540171123</v>
       </c>
       <c r="C138" s="20">
@@ -24328,7 +25864,7 @@
       <c r="A139" s="20">
         <v>2220.9288899663502</v>
       </c>
-      <c r="B139" s="20">
+      <c r="B139" s="58">
         <v>15.9229465967053</v>
       </c>
       <c r="C139" s="20">
@@ -24343,7 +25879,7 @@
       <c r="A140" s="20">
         <v>2272.1429101683898</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="58">
         <v>15.9151028215107</v>
       </c>
       <c r="C140" s="20">
@@ -24358,7 +25894,7 @@
       <c r="A141" s="20">
         <v>2324.5379118404499</v>
       </c>
-      <c r="B141" s="20">
+      <c r="B141" s="58">
         <v>15.906908268848101</v>
       </c>
       <c r="C141" s="20">
@@ -24373,7 +25909,7 @@
       <c r="A142" s="20">
         <v>2378.1411280961602</v>
       </c>
-      <c r="B142" s="20">
+      <c r="B142" s="58">
         <v>15.898347959362599</v>
       </c>
       <c r="C142" s="20">
@@ -24388,7 +25924,7 @@
       <c r="A143" s="20">
         <v>2432.9804200374201</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="58">
         <v>15.889406337224001</v>
       </c>
       <c r="C143" s="20">
@@ -24403,7 +25939,7 @@
       <c r="A144" s="20">
         <v>2489.0842912355902</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="58">
         <v>15.880067253541499</v>
       </c>
       <c r="C144" s="20">
@@ -24418,7 +25954,7 @@
       <c r="A145" s="20">
         <v>2546.48190254672</v>
       </c>
-      <c r="B145" s="20">
+      <c r="B145" s="58">
         <v>15.8703139527051</v>
       </c>
       <c r="C145" s="20">
@@ -24433,7 +25969,7 @@
       <c r="A146" s="20">
         <v>2605.2030872682799</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="58">
         <v>15.8601290547688</v>
       </c>
       <c r="C146" s="20">
@@ -24448,7 +25984,7 @@
       <c r="A147" s="20">
         <v>2665.2783666455598</v>
       </c>
-      <c r="B147" s="20">
+      <c r="B147" s="58">
         <v>15.8494945399569</v>
       </c>
       <c r="C147" s="20">
@@ -24463,7 +25999,7 @@
       <c r="A148" s="20">
         <v>2726.7389657354902</v>
       </c>
-      <c r="B148" s="20">
+      <c r="B148" s="58">
         <v>15.8383917328393</v>
       </c>
       <c r="C148" s="20">
@@ -24478,7 +26014,7 @@
       <c r="A149" s="20">
         <v>2789.6168296363899</v>
       </c>
-      <c r="B149" s="20">
+      <c r="B149" s="58">
         <v>15.8268012884472</v>
       </c>
       <c r="C149" s="20">
@@ -24493,7 +26029,7 @@
       <c r="A150" s="20">
         <v>2853.9446400919201</v>
       </c>
-      <c r="B150" s="20">
+      <c r="B150" s="58">
         <v>15.814703175440201</v>
       </c>
       <c r="C150" s="20">
@@ -24508,7 +26044,7 @@
       <c r="A151" s="20">
         <v>2919.7558324779102</v>
       </c>
-      <c r="B151" s="20">
+      <c r="B151" s="58">
         <v>15.802076663888499</v>
       </c>
       <c r="C151" s="20">
@@ -24523,7 +26059,7 @@
       <c r="A152" s="20">
         <v>2987.0846131809399</v>
       </c>
-      <c r="B152" s="20">
+      <c r="B152" s="58">
         <v>15.788900311548501</v>
       </c>
       <c r="C152" s="20">
@@ -24538,7 +26074,7 @@
       <c r="A153" s="20">
         <v>3055.9659773776102</v>
       </c>
-      <c r="B153" s="20">
+      <c r="B153" s="58">
         <v>15.7751519509355</v>
       </c>
       <c r="C153" s="20">
@@ -24553,7 +26089,7 @@
       <c r="A154" s="20">
         <v>3126.4357272238299</v>
       </c>
-      <c r="B154" s="20">
+      <c r="B154" s="58">
         <v>15.760808676688599</v>
       </c>
       <c r="C154" s="20">
@@ -24568,7 +26104,7 @@
       <c r="A155" s="20">
         <v>3198.53049046358</v>
       </c>
-      <c r="B155" s="20">
+      <c r="B155" s="58">
         <v>15.745846836136799</v>
       </c>
       <c r="C155" s="20">
@@ -24583,7 +26119,7 @@
       <c r="A156" s="20">
         <v>3272.2877394666998</v>
       </c>
-      <c r="B156" s="20">
+      <c r="B156" s="58">
         <v>15.730242020401199</v>
       </c>
       <c r="C156" s="20">
@@ -24598,7 +26134,7 @@
       <c r="A157" s="20">
         <v>3347.74581070575</v>
       </c>
-      <c r="B157" s="20">
+      <c r="B157" s="58">
         <v>15.713969054685201</v>
       </c>
       <c r="C157" s="20">
@@ -24613,7 +26149,7 @@
       <c r="A158" s="20">
         <v>3424.9439246820202</v>
       </c>
-      <c r="B158" s="20">
+      <c r="B158" s="58">
         <v>15.6970019915641</v>
       </c>
       <c r="C158" s="20">
@@ -24628,7 +26164,7 @@
       <c r="A159" s="20">
         <v>3503.9222063109301</v>
       </c>
-      <c r="B159" s="20">
+      <c r="B159" s="58">
         <v>15.679314107118399</v>
       </c>
       <c r="C159" s="20">
@@ -24643,7 +26179,7 @@
       <c r="A160" s="20">
         <v>3584.7217057776202</v>
       </c>
-      <c r="B160" s="20">
+      <c r="B160" s="58">
         <v>15.660877897624299</v>
       </c>
       <c r="C160" s="20">
@@ -24658,7 +26194,7 @@
       <c r="A161" s="20">
         <v>3667.38441987343</v>
       </c>
-      <c r="B161" s="20">
+      <c r="B161" s="58">
         <v>15.641665077019301</v>
       </c>
       <c r="C161" s="20">
@@ -24673,7 +26209,7 @@
       <c r="A162" s="20">
         <v>3751.9533138243401</v>
       </c>
-      <c r="B162" s="20">
+      <c r="B162" s="58">
         <v>15.6216465777237</v>
       </c>
       <c r="C162" s="20">
@@ -24688,7 +26224,7 @@
       <c r="A163" s="20">
         <v>3838.4723436228301</v>
       </c>
-      <c r="B163" s="20">
+      <c r="B163" s="58">
         <v>15.600792555570999</v>
       </c>
       <c r="C163" s="20">
@@ -24703,7 +26239,7 @@
       <c r="A164" s="20">
         <v>3926.98647887472</v>
       </c>
-      <c r="B164" s="20">
+      <c r="B164" s="58">
         <v>15.5790723927736</v>
       </c>
       <c r="C164" s="20">
@@ -24718,7 +26254,7 @@
       <c r="A165" s="20">
         <v>4017.5417261727498</v>
       </c>
-      <c r="B165" s="20">
+      <c r="B165" s="58">
         <v>15.556454708957601</v>
       </c>
       <c r="C165" s="20">
@@ -24733,7 +26269,7 @@
       <c r="A166" s="20">
         <v>4110.1851530092999</v>
       </c>
-      <c r="B166" s="20">
+      <c r="B166" s="58">
         <v>15.5329073712086</v>
       </c>
       <c r="C166" s="20">
@@ -24748,7 +26284,7 @@
       <c r="A167" s="20">
         <v>4204.9649122403798</v>
       </c>
-      <c r="B167" s="20">
+      <c r="B167" s="58">
         <v>15.5083975081268</v>
       </c>
       <c r="C167" s="20">
@@ -24763,7 +26299,7 @@
       <c r="A168" s="20">
         <v>4301.9302671138803</v>
       </c>
-      <c r="B168" s="20">
+      <c r="B168" s="58">
         <v>15.4828915274487</v>
       </c>
       <c r="C168" s="20">
@@ -24778,7 +26314,7 @@
       <c r="A169" s="20">
         <v>4401.1316168748299</v>
       </c>
-      <c r="B169" s="20">
+      <c r="B169" s="58">
         <v>15.456355137433199</v>
       </c>
       <c r="C169" s="20">
@@ -24793,7 +26329,7 @@
       <c r="A170" s="20">
         <v>4502.6205229612897</v>
       </c>
-      <c r="B170" s="20">
+      <c r="B170" s="58">
         <v>15.428753371885101</v>
       </c>
       <c r="C170" s="20">
@@ -24808,7 +26344,7 @@
       <c r="A171" s="20">
         <v>4606.4497358041099</v>
       </c>
-      <c r="B171" s="20">
+      <c r="B171" s="58">
         <v>15.4000506192875</v>
       </c>
       <c r="C171" s="20">
@@ -24823,7 +26359,7 @@
       <c r="A172" s="20">
         <v>4712.67322224485</v>
       </c>
-      <c r="B172" s="20">
+      <c r="B172" s="58">
         <v>15.3702106516998</v>
       </c>
       <c r="C172" s="20">
@@ -24838,7 +26374,7 @@
       <c r="A173" s="20">
         <v>4821.3461935858404</v>
       </c>
-      <c r="B173" s="20">
+      <c r="B173" s="58">
         <v>15.3391966688162</v>
       </c>
       <c r="C173" s="20">
@@ -24853,7 +26389,7 @@
       <c r="A174" s="20">
         <v>4932.5251342871397</v>
       </c>
-      <c r="B174" s="20">
+      <c r="B174" s="58">
         <v>15.3069713302644</v>
       </c>
       <c r="C174" s="20">
@@ -24868,7 +26404,7 @@
       <c r="A175" s="20">
         <v>5046.2678313251799</v>
       </c>
-      <c r="B175" s="20">
+      <c r="B175" s="58">
         <v>15.273496807235199</v>
       </c>
       <c r="C175" s="20">
@@ -24883,7 +26419,7 @@
       <c r="A176" s="20">
         <v>5162.6334042284798</v>
       </c>
-      <c r="B176" s="20">
+      <c r="B176" s="58">
         <v>15.238734829648299</v>
       </c>
       <c r="C176" s="20">
@@ -24898,7 +26434,7 @@
       <c r="A177" s="20">
         <v>5281.6823358059</v>
       </c>
-      <c r="B177" s="20">
+      <c r="B177" s="58">
         <v>15.2026467431829</v>
       </c>
       <c r="C177" s="20">
@@ -24913,7 +26449,7 @@
       <c r="A178" s="20">
         <v>5403.4765035835399</v>
       </c>
-      <c r="B178" s="20">
+      <c r="B178" s="58">
         <v>15.1651935646846</v>
       </c>
       <c r="C178" s="20">
@@ -24928,7 +26464,7 @@
       <c r="A179" s="20">
         <v>5528.0792119665102</v>
       </c>
-      <c r="B179" s="20">
+      <c r="B179" s="58">
         <v>15.12633605013</v>
       </c>
       <c r="C179" s="20">
@@ -24943,7 +26479,7 @@
       <c r="A180" s="20">
         <v>5655.5552251424497</v>
       </c>
-      <c r="B180" s="20">
+      <c r="B180" s="58">
         <v>15.0860347589167</v>
       </c>
       <c r="C180" s="20">
@@ -24958,7 +26494,7 @@
       <c r="A181" s="20">
         <v>5785.9708007436202</v>
       </c>
-      <c r="B181" s="20">
+      <c r="B181" s="58">
         <v>15.044250132871399</v>
       </c>
       <c r="C181" s="20">
@@ -24973,7 +26509,7 @@
       <c r="A182" s="20">
         <v>5919.3937242854099</v>
       </c>
-      <c r="B182" s="20">
+      <c r="B182" s="58">
         <v>15.000942567642999</v>
       </c>
       <c r="C182" s="20">
@@ -24988,7 +26524,7 @@
       <c r="A183" s="20">
         <v>6055.8933443988799</v>
       </c>
-      <c r="B183" s="20">
+      <c r="B183" s="58">
         <v>14.9560724987985</v>
       </c>
       <c r="C183" s="20">
@@ -25003,7 +26539,7 @@
       <c r="A184" s="20">
         <v>6195.54060887576</v>
       </c>
-      <c r="B184" s="20">
+      <c r="B184" s="58">
         <v>14.909600486889399</v>
       </c>
       <c r="C184" s="20">
@@ -25018,7 +26554,7 @@
       <c r="A185" s="20">
         <v>6338.40810154473</v>
       </c>
-      <c r="B185" s="20">
+      <c r="B185" s="58">
         <v>14.8614873086189</v>
       </c>
       <c r="C185" s="20">
@@ -25033,7 +26569,7 @@
       <c r="A186" s="20">
         <v>6484.5700799979204</v>
       </c>
-      <c r="B186" s="20">
+      <c r="B186" s="58">
         <v>14.8116940504838</v>
       </c>
       <c r="C186" s="20">
@@ -25048,7 +26584,7 @@
       <c r="A187" s="20">
         <v>6634.1025141874798</v>
       </c>
-      <c r="B187" s="20">
+      <c r="B187" s="58">
         <v>14.760182205423501</v>
       </c>
       <c r="C187" s="20">
@@ -25063,7 +26599,7 @@
       <c r="A188" s="20">
         <v>6787.0831259121496</v>
       </c>
-      <c r="B188" s="20">
+      <c r="B188" s="58">
         <v>14.7069137752642</v>
       </c>
       <c r="C188" s="20">
@@ -25078,7 +26614,7 @@
       <c r="A189" s="20">
         <v>6943.5914292143398</v>
       </c>
-      <c r="B189" s="20">
+      <c r="B189" s="58">
         <v>14.6518513735944</v>
       </c>
       <c r="C189" s="20">
@@ -25093,7 +26629,7 @@
       <c r="A190" s="20">
         <v>7103.7087717087798</v>
       </c>
-      <c r="B190" s="20">
+      <c r="B190" s="58">
         <v>14.5949583306537</v>
       </c>
       <c r="C190" s="20">
@@ -25108,7 +26644,7 @@
       <c r="A191" s="20">
         <v>7267.5183768642401</v>
       </c>
-      <c r="B191" s="20">
+      <c r="B191" s="58">
         <v>14.5361988013937</v>
       </c>
       <c r="C191" s="20">
@@ -25123,7 +26659,7 @@
       <c r="A192" s="20">
         <v>7435.1053872601997</v>
       </c>
-      <c r="B192" s="20">
+      <c r="B192" s="58">
         <v>14.475537873281001</v>
       </c>
       <c r="C192" s="20">
@@ -25138,7 +26674,7 @@
       <c r="A193" s="20">
         <v>7606.5569088410002</v>
       </c>
-      <c r="B193" s="20">
+      <c r="B193" s="58">
         <v>14.412941676987099</v>
       </c>
       <c r="C193" s="20">
@@ -25153,7 +26689,7 @@
       <c r="A194" s="20">
         <v>7781.9620561905404</v>
       </c>
-      <c r="B194" s="20">
+      <c r="B194" s="58">
         <v>14.348377492696001</v>
       </c>
       <c r="C194" s="20">
@@ -25168,7 +26704,7 @@
       <c r="A195" s="20">
         <v>7961.4119988509401</v>
       </c>
-      <c r="B195" s="20">
+      <c r="B195" s="58">
         <v>14.2818138611753</v>
       </c>
       <c r="C195" s="20">
@@ -25183,7 +26719,7 @@
       <c r="A196" s="20">
         <v>8145.0000087093504</v>
       </c>
-      <c r="B196" s="20">
+      <c r="B196" s="58">
         <v>14.2132206887177</v>
       </c>
       <c r="C196" s="20">
@@ -25198,7 +26734,7 @@
       <c r="A197" s="20">
         <v>8332.8215084774201</v>
       </c>
-      <c r="B197" s="20">
+      <c r="B197" s="58">
         <v>14.142569355027399</v>
       </c>
       <c r="C197" s="20">
@@ -25213,7 +26749,7 @@
       <c r="A198" s="20">
         <v>8524.9741212887493</v>
       </c>
-      <c r="B198" s="20">
+      <c r="B198" s="58">
         <v>14.0698328097022</v>
       </c>
       <c r="C198" s="20">
@@ -25228,7 +26764,7 @@
       <c r="A199" s="20">
         <v>8721.5577214400491</v>
       </c>
-      <c r="B199" s="20">
+      <c r="B199" s="58">
         <v>13.994985676952</v>
       </c>
       <c r="C199" s="20">
@@ -25243,7 +26779,7 @@
       <c r="A200" s="20">
         <v>8922.6744863022996</v>
       </c>
-      <c r="B200" s="20">
+      <c r="B200" s="58">
         <v>13.918004346025301</v>
       </c>
       <c r="C200" s="20">
@@ -25258,7 +26794,7 @@
       <c r="A201" s="20">
         <v>9128.4289494290806</v>
       </c>
-      <c r="B201" s="20">
+      <c r="B201" s="58">
         <v>13.8388670611847</v>
       </c>
       <c r="C201" s="20">
@@ -25273,7 +26809,7 @@
       <c r="A202" s="20">
         <v>9338.9280548894494</v>
       </c>
-      <c r="B202" s="20">
+      <c r="B202" s="58">
         <v>13.7575540069339</v>
       </c>
       <c r="C202" s="20">
@@ -25288,7 +26824,7 @@
       <c r="A203" s="20">
         <v>9554.2812128538208</v>
       </c>
-      <c r="B203" s="20">
+      <c r="B203" s="58">
         <v>13.674047383143201</v>
       </c>
       <c r="C203" s="20">
@@ -25303,7 +26839,7 @@
       <c r="A204" s="20">
         <v>9774.6003564615894</v>
       </c>
-      <c r="B204" s="20">
+      <c r="B204" s="58">
         <v>13.5883314762618</v>
       </c>
       <c r="C204" s="20">
@@ -25318,7 +26854,7 @@
       <c r="A205" s="20">
         <v>10000.0000000001</v>
       </c>
-      <c r="B205" s="20">
+      <c r="B205" s="58">
         <v>13.500392723282699</v>
       </c>
       <c r="C205" s="20">
@@ -25333,7 +26869,7 @@
       <c r="A206" s="20">
         <v>10230.5972984252</v>
       </c>
-      <c r="B206" s="20">
+      <c r="B206" s="58">
         <v>13.410219765023101</v>
       </c>
       <c r="C206" s="20">
@@ -25348,7 +26884,7 @@
       <c r="A207" s="20">
         <v>10466.512108254399</v>
       </c>
-      <c r="B207" s="20">
+      <c r="B207" s="58">
         <v>13.317803492639101</v>
       </c>
       <c r="C207" s="20">
@@ -25363,7 +26899,7 @@
       <c r="A208" s="20">
         <v>10707.867049864</v>
       </c>
-      <c r="B208" s="20">
+      <c r="B208" s="58">
         <v>13.2231370865728</v>
       </c>
       <c r="C208" s="20">
@@ -25378,7 +26914,7 @@
       <c r="A209" s="20">
         <v>10954.7875712234</v>
       </c>
-      <c r="B209" s="20">
+      <c r="B209" s="58">
         <v>13.126216041546201</v>
       </c>
       <c r="C209" s="20">
@@ -25393,7 +26929,7 @@
       <c r="A210" s="20">
         <v>11207.402013097901</v>
       </c>
-      <c r="B210" s="20">
+      <c r="B210" s="58">
         <v>13.027038188683401</v>
       </c>
       <c r="C210" s="20">
@@ -25408,7 +26944,7 @@
       <c r="A211" s="20">
         <v>11465.841675756301</v>
       </c>
-      <c r="B211" s="20">
+      <c r="B211" s="58">
         <v>12.9256037029054</v>
       </c>
       <c r="C211" s="20">
@@ -25423,7 +26959,7 @@
       <c r="A212" s="20">
         <v>11730.2408872162</v>
       </c>
-      <c r="B212" s="20">
+      <c r="B212" s="58">
         <v>12.821915101116099</v>
       </c>
       <c r="C212" s="20">
@@ -25438,7 +26974,7 @@
       <c r="A213" s="20">
         <v>12000.737073062999</v>
       </c>
-      <c r="B213" s="20">
+      <c r="B213" s="58">
         <v>12.7159772335604</v>
       </c>
       <c r="C213" s="20">
@@ -25453,7 +26989,7 @@
       <c r="A214" s="20">
         <v>12277.4708278788</v>
       </c>
-      <c r="B214" s="20">
+      <c r="B214" s="58">
         <v>12.6077972633791</v>
       </c>
       <c r="C214" s="20">
@@ -25468,7 +27004,7 @@
       <c r="A215" s="20">
         <v>12560.585988319001</v>
       </c>
-      <c r="B215" s="20">
+      <c r="B215" s="58">
         <v>12.4973846363219</v>
       </c>
       <c r="C215" s="20">
@@ -25483,7 +27019,7 @@
       <c r="A216" s="20">
         <v>12850.229707873201</v>
       </c>
-      <c r="B216" s="20">
+      <c r="B216" s="58">
         <v>12.3847510426467</v>
       </c>
       <c r="C216" s="20">
@@ -25498,7 +27034,7 @@
       <c r="A217" s="20">
         <v>13146.552533350899</v>
       </c>
-      <c r="B217" s="20">
+      <c r="B217" s="58">
         <v>12.2699103693833</v>
       </c>
       <c r="C217" s="20">
@@ -25513,7 +27049,7 @@
       <c r="A218" s="20">
         <v>13449.7084831303</v>
       </c>
-      <c r="B218" s="20">
+      <c r="B218" s="58">
         <v>12.1528786440354</v>
       </c>
       <c r="C218" s="20">
@@ -25528,7 +27064,7 @@
       <c r="A219" s="20">
         <v>13759.8551272118</v>
       </c>
-      <c r="B219" s="20">
+      <c r="B219" s="58">
         <v>12.033673971517301</v>
       </c>
       <c r="C219" s="20">
@@ -25543,7 +27079,7 @@
       <c r="A220" s="20">
         <v>14077.153669117401</v>
       </c>
-      <c r="B220" s="20">
+      <c r="B220" s="58">
         <v>11.9123164609739</v>
       </c>
       <c r="C220" s="20">
@@ -25558,7 +27094,7 @@
       <c r="A221" s="20">
         <v>14401.7690296787</v>
       </c>
-      <c r="B221" s="20">
+      <c r="B221" s="58">
         <v>11.7888281497048</v>
       </c>
       <c r="C221" s="20">
@@ -25573,7 +27109,7 @@
       <c r="A222" s="20">
         <v>14733.869932757299</v>
       </c>
-      <c r="B222" s="20">
+      <c r="B222" s="58">
         <v>11.663232916808999</v>
       </c>
       <c r="C222" s="20">
@@ -25588,7 +27124,7 @@
       <c r="A223" s="20">
         <v>15073.6289929414</v>
       </c>
-      <c r="B223" s="20">
+      <c r="B223" s="58">
         <v>11.5355563933048</v>
       </c>
       <c r="C223" s="20">
@@ -25600,16 +27136,16 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="20">
+      <c r="A224" s="40">
         <v>15421.222805264801</v>
       </c>
-      <c r="B224" s="20">
+      <c r="B224" s="57">
         <v>11.405825868829201</v>
       </c>
-      <c r="C224" s="20">
+      <c r="C224" s="40">
         <v>-54.362518233738697</v>
       </c>
-      <c r="D224" s="35">
+      <c r="D224" s="54">
         <f t="shared" si="3"/>
         <v>75.121934826434938</v>
       </c>
@@ -25618,7 +27154,7 @@
       <c r="A225" s="20">
         <v>15776.8320369953</v>
       </c>
-      <c r="B225" s="20">
+      <c r="B225" s="58">
         <v>11.2740701903016</v>
       </c>
       <c r="C225" s="20">
@@ -25633,7 +27169,7 @@
       <c r="A226" s="20">
         <v>16140.641521539101</v>
       </c>
-      <c r="B226" s="20">
+      <c r="B226" s="58">
         <v>11.140319660826901</v>
       </c>
       <c r="C226" s="20">
@@ -25648,7 +27184,7 @@
       <c r="A227" s="20">
         <v>16512.840354510499</v>
       </c>
-      <c r="B227" s="20">
+      <c r="B227" s="58">
         <v>11.0046059341151</v>
       </c>
       <c r="C227" s="20">
@@ -25663,7 +27199,7 @@
       <c r="A228" s="20">
         <v>16893.621992018001</v>
       </c>
-      <c r="B228" s="20">
+      <c r="B228" s="58">
         <v>10.866961907573801</v>
       </c>
       <c r="C228" s="20">
@@ -25678,7 +27214,7 @@
       <c r="A229" s="20">
         <v>17283.184351215401</v>
       </c>
-      <c r="B229" s="20">
+      <c r="B229" s="58">
         <v>10.7274216129045</v>
       </c>
       <c r="C229" s="20">
@@ -25693,7 +27229,7 @@
       <c r="A230" s="20">
         <v>17681.729913172701</v>
       </c>
-      <c r="B230" s="20">
+      <c r="B230" s="58">
         <v>10.5860201080362</v>
       </c>
       <c r="C230" s="20">
@@ -25708,7 +27244,7 @@
       <c r="A231" s="20">
         <v>18089.4658281187</v>
       </c>
-      <c r="B231" s="20">
+      <c r="B231" s="58">
         <v>10.4427933673929</v>
       </c>
       <c r="C231" s="20">
@@ -25723,7 +27259,7 @@
       <c r="A232" s="20">
         <v>18506.604023110402</v>
       </c>
-      <c r="B232" s="20">
+      <c r="B232" s="58">
         <v>10.297778174182101</v>
       </c>
       <c r="C232" s="20">
@@ -25738,7 +27274,7 @@
       <c r="A233" s="20">
         <v>18933.3613121856</v>
       </c>
-      <c r="B233" s="20">
+      <c r="B233" s="58">
         <v>10.1510120124645</v>
       </c>
       <c r="C233" s="20">
@@ -25753,7 +27289,7 @@
       <c r="A234" s="20">
         <v>19369.959509055199</v>
       </c>
-      <c r="B234" s="20">
+      <c r="B234" s="58">
         <v>10.002532962809701</v>
       </c>
       <c r="C234" s="20">
@@ -25768,7 +27304,7 @@
       <c r="A235" s="20">
         <v>19816.625542394399</v>
       </c>
-      <c r="B235" s="20">
+      <c r="B235" s="58">
         <v>9.8523795980105699</v>
       </c>
       <c r="C235" s="20">
@@ -25783,7 +27319,7 @@
       <c r="A236" s="20">
         <v>20273.591573792099</v>
       </c>
-      <c r="B236" s="20">
+      <c r="B236" s="58">
         <v>9.7005908842257291</v>
       </c>
       <c r="C236" s="20">
@@ -25798,7 +27334,7 @@
       <c r="A237" s="20">
         <v>20741.095118421101</v>
       </c>
-      <c r="B237" s="20">
+      <c r="B237" s="58">
         <v>9.5472060831552703</v>
       </c>
       <c r="C237" s="20">
@@ -25813,7 +27349,7 @@
       <c r="A238" s="20">
         <v>21219.379168489701</v>
       </c>
-      <c r="B238" s="20">
+      <c r="B238" s="58">
         <v>9.3922646577096902</v>
       </c>
       <c r="C238" s="20">
@@ -25828,7 +27364,7 @@
       <c r="A239" s="20">
         <v>21708.692319540802</v>
       </c>
-      <c r="B239" s="20">
+      <c r="B239" s="58">
         <v>9.2358061838151109</v>
       </c>
       <c r="C239" s="20">
@@ -25843,7 +27379,7 @@
       <c r="A240" s="20">
         <v>22209.288899663599</v>
       </c>
-      <c r="B240" s="20">
+      <c r="B240" s="58">
         <v>9.0778702633172692</v>
       </c>
       <c r="C240" s="20">
@@ -25858,7 +27394,7 @@
       <c r="A241" s="20">
         <v>22721.429101684</v>
       </c>
-      <c r="B241" s="20">
+      <c r="B241" s="58">
         <v>8.9184964428811409</v>
       </c>
       <c r="C241" s="20">
@@ -25873,7 +27409,7 @@
       <c r="A242" s="20">
         <v>23245.379118404599</v>
       </c>
-      <c r="B242" s="20">
+      <c r="B242" s="58">
         <v>8.7577241371875605</v>
       </c>
       <c r="C242" s="20">
@@ -25888,7 +27424,7 @@
       <c r="A243" s="20">
         <v>23781.4112809617</v>
       </c>
-      <c r="B243" s="20">
+      <c r="B243" s="58">
         <v>8.5955925558020301</v>
       </c>
       <c r="C243" s="20">
@@ -25903,7 +27439,7 @@
       <c r="A244" s="20">
         <v>24329.804200374299</v>
       </c>
-      <c r="B244" s="20">
+      <c r="B244" s="58">
         <v>8.4321406363427602</v>
       </c>
       <c r="C244" s="20">
@@ -25918,7 +27454,7 @@
       <c r="A245" s="20">
         <v>24890.842912356002</v>
       </c>
-      <c r="B245" s="20">
+      <c r="B245" s="58">
         <v>8.2674069801830008</v>
       </c>
       <c r="C245" s="20">
@@ -25933,7 +27469,7 @@
       <c r="A246" s="20">
         <v>25464.819025467299</v>
       </c>
-      <c r="B246" s="20">
+      <c r="B246" s="58">
         <v>8.1014297947454796</v>
       </c>
       <c r="C246" s="20">
@@ -25948,7 +27484,7 @@
       <c r="A247" s="20">
         <v>26052.030872682899</v>
       </c>
-      <c r="B247" s="20">
+      <c r="B247" s="58">
         <v>7.9342468388026601</v>
       </c>
       <c r="C247" s="20">
@@ -25963,7 +27499,7 @@
       <c r="A248" s="20">
         <v>26652.7836664557</v>
       </c>
-      <c r="B248" s="20">
+      <c r="B248" s="58">
         <v>7.7658953741552699</v>
       </c>
       <c r="C248" s="20">
@@ -25978,7 +27514,7 @@
       <c r="A249" s="20">
         <v>27267.389657355001</v>
       </c>
-      <c r="B249" s="20">
+      <c r="B249" s="58">
         <v>7.59641212006379</v>
       </c>
       <c r="C249" s="20">
@@ -25993,7 +27529,7 @@
       <c r="A250" s="20">
         <v>27896.168296364001</v>
       </c>
-      <c r="B250" s="20">
+      <c r="B250" s="58">
         <v>7.4258332133336697</v>
       </c>
       <c r="C250" s="20">
@@ -26008,7 +27544,7 @@
       <c r="A251" s="20">
         <v>28539.4464009193</v>
       </c>
-      <c r="B251" s="20">
+      <c r="B251" s="58">
         <v>7.2541941719263097</v>
       </c>
       <c r="C251" s="20">
@@ -26023,7 +27559,7 @@
       <c r="A252" s="20">
         <v>29197.558324779198</v>
       </c>
-      <c r="B252" s="20">
+      <c r="B252" s="58">
         <v>7.0815298631433201</v>
       </c>
       <c r="C252" s="20">
@@ -26038,7 +27574,7 @@
       <c r="A253" s="20">
         <v>29870.8461318095</v>
       </c>
-      <c r="B253" s="20">
+      <c r="B253" s="58">
         <v>6.9078744756291703</v>
       </c>
       <c r="C253" s="20">
@@ -26053,7 +27589,7 @@
       <c r="A254" s="20">
         <v>30559.659773776199</v>
       </c>
-      <c r="B254" s="20">
+      <c r="B254" s="58">
         <v>6.73326149537509</v>
       </c>
       <c r="C254" s="20">
@@ -26068,7 +27604,7 @@
       <c r="A255" s="20">
         <v>31264.3572722385</v>
       </c>
-      <c r="B255" s="20">
+      <c r="B255" s="58">
         <v>6.5577236846007496</v>
       </c>
       <c r="C255" s="20">
@@ -26083,7 +27619,7 @@
       <c r="A256" s="20">
         <v>31985.304904635999</v>
       </c>
-      <c r="B256" s="20">
+      <c r="B256" s="58">
         <v>6.3812930652700901</v>
       </c>
       <c r="C256" s="20">
@@ -26098,7 +27634,7 @@
       <c r="A257" s="20">
         <v>32722.877394667099</v>
       </c>
-      <c r="B257" s="20">
+      <c r="B257" s="58">
         <v>6.2040009047273896</v>
       </c>
       <c r="C257" s="20">
@@ -26113,7 +27649,7 @@
       <c r="A258" s="20">
         <v>33477.458107057697</v>
       </c>
-      <c r="B258" s="20">
+      <c r="B258" s="58">
         <v>6.02587770519452</v>
       </c>
       <c r="C258" s="20">
@@ -26128,7 +27664,7 @@
       <c r="A259" s="20">
         <v>34249.4392468203</v>
       </c>
-      <c r="B259" s="20">
+      <c r="B259" s="58">
         <v>5.8469531957504204</v>
       </c>
       <c r="C259" s="20">
@@ -26143,7 +27679,7 @@
       <c r="A260" s="20">
         <v>35039.222063109402</v>
       </c>
-      <c r="B260" s="20">
+      <c r="B260" s="58">
         <v>5.66725632712643</v>
       </c>
       <c r="C260" s="20">
@@ -26158,7 +27694,7 @@
       <c r="A261" s="20">
         <v>35847.217057776397</v>
       </c>
-      <c r="B261" s="20">
+      <c r="B261" s="58">
         <v>5.4868152686213003</v>
       </c>
       <c r="C261" s="20">
@@ -26173,7 +27709,7 @@
       <c r="A262" s="20">
         <v>36673.8441987345</v>
       </c>
-      <c r="B262" s="20">
+      <c r="B262" s="58">
         <v>5.3056574081102603</v>
       </c>
       <c r="C262" s="20">
@@ -26188,7 +27724,7 @@
       <c r="A263" s="20">
         <v>37519.533138243503</v>
       </c>
-      <c r="B263" s="20">
+      <c r="B263" s="58">
         <v>5.1238093532834696</v>
       </c>
       <c r="C263" s="20">
@@ -26203,7 +27739,7 @@
       <c r="A264" s="20">
         <v>38384.723436228502</v>
       </c>
-      <c r="B264" s="20">
+      <c r="B264" s="58">
         <v>4.9412969354213798</v>
       </c>
       <c r="C264" s="20">
@@ -26218,7 +27754,7 @@
       <c r="A265" s="20">
         <v>39269.864788747298</v>
       </c>
-      <c r="B265" s="20">
+      <c r="B265" s="58">
         <v>4.7581452145998897</v>
       </c>
       <c r="C265" s="20">
@@ -26233,7 +27769,7 @@
       <c r="A266" s="20">
         <v>40175.4172617277</v>
       </c>
-      <c r="B266" s="20">
+      <c r="B266" s="58">
         <v>4.5743784867167898</v>
       </c>
       <c r="C266" s="20">
@@ -26248,7 +27784,7 @@
       <c r="A267" s="20">
         <v>41101.851530093198</v>
       </c>
-      <c r="B267" s="20">
+      <c r="B267" s="58">
         <v>4.3900202918975797</v>
       </c>
       <c r="C267" s="20">
@@ -26263,7 +27799,7 @@
       <c r="A268" s="20">
         <v>42049.649122404</v>
       </c>
-      <c r="B268" s="20">
+      <c r="B268" s="58">
         <v>4.2050934241291396</v>
       </c>
       <c r="C268" s="20">
@@ -26278,7 +27814,7 @@
       <c r="A269" s="20">
         <v>43019.302671138903</v>
       </c>
-      <c r="B269" s="20">
+      <c r="B269" s="58">
         <v>4.0196199420555798</v>
       </c>
       <c r="C269" s="20">
@@ -26293,7 +27829,7 @@
       <c r="A270" s="20">
         <v>44011.316168748497</v>
       </c>
-      <c r="B270" s="20">
+      <c r="B270" s="58">
         <v>3.8336211809221998</v>
       </c>
       <c r="C270" s="20">
@@ -26308,7 +27844,7 @@
       <c r="A271" s="20">
         <v>45026.205229613101</v>
       </c>
-      <c r="B271" s="20">
+      <c r="B271" s="58">
         <v>3.64711776538554</v>
       </c>
       <c r="C271" s="20">
@@ -26323,7 +27859,7 @@
       <c r="A272" s="20">
         <v>46064.497358041299</v>
       </c>
-      <c r="B272" s="20">
+      <c r="B272" s="58">
         <v>3.4601296227366598</v>
       </c>
       <c r="C272" s="20">
@@ -26338,7 +27874,7 @@
       <c r="A273" s="20">
         <v>47126.7322224487</v>
       </c>
-      <c r="B273" s="20">
+      <c r="B273" s="58">
         <v>3.2726759973048498</v>
       </c>
       <c r="C273" s="20">
@@ -26353,7 +27889,7 @@
       <c r="A274" s="20">
         <v>48213.461935858599</v>
       </c>
-      <c r="B274" s="20">
+      <c r="B274" s="58">
         <v>3.0847754652473198</v>
       </c>
       <c r="C274" s="20">
@@ -26368,7 +27904,7 @@
       <c r="A275" s="20">
         <v>49325.251342871597</v>
       </c>
-      <c r="B275" s="20">
+      <c r="B275" s="58">
         <v>2.8964459495922501</v>
       </c>
       <c r="C275" s="20">
@@ -26383,7 +27919,7 @@
       <c r="A276" s="20">
         <v>50462.678313251999</v>
       </c>
-      <c r="B276" s="20">
+      <c r="B276" s="58">
         <v>2.7077047357631598</v>
       </c>
       <c r="C276" s="20">
@@ -26398,7 +27934,7 @@
       <c r="A277" s="20">
         <v>51626.334042285103</v>
       </c>
-      <c r="B277" s="20">
+      <c r="B277" s="58">
         <v>2.5185684876067</v>
       </c>
       <c r="C277" s="20">
@@ -26413,7 +27949,7 @@
       <c r="A278" s="20">
         <v>52816.823358059301</v>
       </c>
-      <c r="B278" s="20">
+      <c r="B278" s="58">
         <v>2.3290532633624101</v>
       </c>
       <c r="C278" s="20">
@@ -26428,7 +27964,7 @@
       <c r="A279" s="20">
         <v>54034.765035835597</v>
       </c>
-      <c r="B279" s="20">
+      <c r="B279" s="58">
         <v>2.1391745317858599</v>
       </c>
       <c r="C279" s="20">
@@ -26443,7 +27979,7 @@
       <c r="A280" s="20">
         <v>55280.792119665399</v>
       </c>
-      <c r="B280" s="20">
+      <c r="B280" s="58">
         <v>1.9489471885237699</v>
       </c>
       <c r="C280" s="20">
@@ -26458,7 +27994,7 @@
       <c r="A281" s="20">
         <v>56555.5522514248</v>
       </c>
-      <c r="B281" s="20">
+      <c r="B281" s="58">
         <v>1.75838557243914</v>
       </c>
       <c r="C281" s="20">
@@ -26473,7 +28009,7 @@
       <c r="A282" s="20">
         <v>57859.7080074365</v>
       </c>
-      <c r="B282" s="20">
+      <c r="B282" s="58">
         <v>1.5675034818443201</v>
       </c>
       <c r="C282" s="20">
@@ -26488,7 +28024,7 @@
       <c r="A283" s="20">
         <v>59193.937242854401</v>
       </c>
-      <c r="B283" s="20">
+      <c r="B283" s="58">
         <v>1.3763141906429801</v>
       </c>
       <c r="C283" s="20">
@@ -26503,7 +28039,7 @@
       <c r="A284" s="20">
         <v>60558.933443989001</v>
       </c>
-      <c r="B284" s="20">
+      <c r="B284" s="58">
         <v>1.184830464519</v>
       </c>
       <c r="C284" s="20">
@@ -26518,7 +28054,7 @@
       <c r="A285" s="20">
         <v>61955.406088757903</v>
       </c>
-      <c r="B285" s="20">
+      <c r="B285" s="58">
         <v>0.99306457686003802</v>
       </c>
       <c r="C285" s="20">
@@ -26533,7 +28069,7 @@
       <c r="A286" s="20">
         <v>63384.081015447497</v>
       </c>
-      <c r="B286" s="20">
+      <c r="B286" s="58">
         <v>0.80102832425281101</v>
       </c>
       <c r="C286" s="20">
@@ -26548,7 +28084,7 @@
       <c r="A287" s="20">
         <v>64845.7007999794</v>
       </c>
-      <c r="B287" s="20">
+      <c r="B287" s="58">
         <v>0.60873304240711101</v>
       </c>
       <c r="C287" s="20">
@@ -26563,7 +28099,7 @@
       <c r="A288" s="20">
         <v>66341.0251418751</v>
       </c>
-      <c r="B288" s="20">
+      <c r="B288" s="58">
         <v>0.41618962106590701</v>
       </c>
       <c r="C288" s="20">
@@ -26578,7 +28114,7 @@
       <c r="A289" s="20">
         <v>67870.831259121798</v>
       </c>
-      <c r="B289" s="20">
+      <c r="B289" s="58">
         <v>0.22340851921271301</v>
       </c>
       <c r="C289" s="20">
@@ -26593,7 +28129,7 @@
       <c r="A290" s="20">
         <v>69435.914292143701</v>
       </c>
-      <c r="B290" s="20">
+      <c r="B290" s="58">
         <v>3.0399779654102701E-2</v>
       </c>
       <c r="C290" s="20">
@@ -26608,7 +28144,7 @@
       <c r="A291" s="20">
         <v>71037.087717088099</v>
       </c>
-      <c r="B291" s="20">
+      <c r="B291" s="58">
         <v>-0.162826956367431</v>
       </c>
       <c r="C291" s="20">
@@ -26623,7 +28159,7 @@
       <c r="A292" s="20">
         <v>72675.183768642702</v>
       </c>
-      <c r="B292" s="20">
+      <c r="B292" s="58">
         <v>-0.35626243528333401</v>
       </c>
       <c r="C292" s="20">
@@ -26638,7 +28174,7 @@
       <c r="A293" s="20">
         <v>74351.053872602293</v>
       </c>
-      <c r="B293" s="20">
+      <c r="B293" s="58">
         <v>-0.54989777728227796</v>
       </c>
       <c r="C293" s="20">
@@ -26653,7 +28189,7 @@
       <c r="A294" s="20">
         <v>76065.569088410295</v>
       </c>
-      <c r="B294" s="20">
+      <c r="B294" s="58">
         <v>-0.74372446291906802</v>
       </c>
       <c r="C294" s="20">
@@ -26668,7 +28204,7 @@
       <c r="A295" s="20">
         <v>77819.6205619057</v>
       </c>
-      <c r="B295" s="20">
+      <c r="B295" s="58">
         <v>-0.93773431999402401</v>
       </c>
       <c r="C295" s="20">
@@ -26683,7 +28219,7 @@
       <c r="A296" s="20">
         <v>79614.119988509803</v>
       </c>
-      <c r="B296" s="20">
+      <c r="B296" s="58">
         <v>-1.1319195107520099</v>
       </c>
       <c r="C296" s="20">
@@ -26698,7 +28234,7 @@
       <c r="A297" s="20">
         <v>81450.000087093897</v>
       </c>
-      <c r="B297" s="20">
+      <c r="B297" s="58">
         <v>-1.32627251955448</v>
       </c>
       <c r="C297" s="20">
@@ -26713,7 +28249,7 @@
       <c r="A298" s="20">
         <v>83328.215084774594</v>
       </c>
-      <c r="B298" s="20">
+      <c r="B298" s="58">
         <v>-1.52078614079148</v>
       </c>
       <c r="C298" s="20">
@@ -26728,7 +28264,7 @@
       <c r="A299" s="20">
         <v>85249.741212887893</v>
       </c>
-      <c r="B299" s="20">
+      <c r="B299" s="58">
         <v>-1.7154534671224499</v>
       </c>
       <c r="C299" s="20">
@@ -26743,7 +28279,7 @@
       <c r="A300" s="20">
         <v>87215.577214400895</v>
       </c>
-      <c r="B300" s="20">
+      <c r="B300" s="58">
         <v>-1.91026787813525</v>
       </c>
       <c r="C300" s="20">
@@ -26758,7 +28294,7 @@
       <c r="A301" s="20">
         <v>89226.744863023399</v>
       </c>
-      <c r="B301" s="20">
+      <c r="B301" s="58">
         <v>-2.1052230294065502</v>
       </c>
       <c r="C301" s="20">
@@ -26773,7 +28309,7 @@
       <c r="A302" s="20">
         <v>91284.289494291195</v>
       </c>
-      <c r="B302" s="20">
+      <c r="B302" s="58">
         <v>-2.3003128417316199</v>
       </c>
       <c r="C302" s="20">
@@ -26788,7 +28324,7 @@
       <c r="A303" s="20">
         <v>93389.280548894894</v>
       </c>
-      <c r="B303" s="20">
+      <c r="B303" s="58">
         <v>-2.49553149085994</v>
       </c>
       <c r="C303" s="20">
@@ -26803,7 +28339,7 @@
       <c r="A304" s="20">
         <v>95542.812128538601</v>
       </c>
-      <c r="B304" s="20">
+      <c r="B304" s="58">
         <v>-2.69087339749312</v>
       </c>
       <c r="C304" s="20">
@@ -26818,7 +28354,7 @@
       <c r="A305" s="20">
         <v>97746.003564616301</v>
       </c>
-      <c r="B305" s="20">
+      <c r="B305" s="58">
         <v>-2.88633321764816</v>
       </c>
       <c r="C305" s="20">
@@ -26833,7 +28369,7 @@
       <c r="A306" s="20">
         <v>100000</v>
       </c>
-      <c r="B306" s="20">
+      <c r="B306" s="58">
         <v>-3.0819058332809699</v>
       </c>
       <c r="C306" s="20">

--- a/lab3/Lab 3 - Multstage Amplifier.xlsx
+++ b/lab3/Lab 3 - Multstage Amplifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\3ej4\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED505AB-93C7-4B6D-A3B0-66D8FBAD8843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE07D4B-FCDB-43D3-8D44-0CA281D6E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="7485" windowWidth="33030" windowHeight="8805" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18180" yWindow="480" windowWidth="19410" windowHeight="15255" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1.2" sheetId="13" r:id="rId1"/>
@@ -10727,8 +10727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11003,7 +11003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -11109,7 +11109,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18424,8 +18424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="260" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" zoomScale="117" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23753,7 +23753,8 @@
   <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/lab3/Lab 3 - Multstage Amplifier.xlsx
+++ b/lab3/Lab 3 - Multstage Amplifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\3ej4\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE07D4B-FCDB-43D3-8D44-0CA281D6E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37141762-8C3F-4ACD-BE6C-739F5013ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="480" windowWidth="19410" windowHeight="15255" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="345" windowWidth="19410" windowHeight="15255" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1.2" sheetId="13" r:id="rId1"/>
@@ -23754,7 +23754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23830,7 +23830,7 @@
         <v>90127674.176386565</v>
       </c>
       <c r="F3" s="36">
-        <v>79500000</v>
+        <v>107297.58249573161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
